--- a/P3_PredictCatalogDemand/p3-mailinglist.xlsx
+++ b/P3_PredictCatalogDemand/p3-mailinglist.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/likejun/data/become-business-analyst/P3_PredictCatalogDemand/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7650"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="p1-mailinglist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="540">
   <si>
     <t>Name</t>
   </si>
@@ -1630,31 +1638,43 @@
   </si>
   <si>
     <t>1071 Worchester St</t>
+  </si>
+  <si>
+    <t>Predicted Sales</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predicted Profit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Profit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1662,7 +1682,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1670,7 +1690,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1678,35 +1698,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1714,7 +1734,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1722,14 +1742,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1737,14 +1757,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1752,7 +1772,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1760,14 +1780,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2069,7 +2111,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2112,54 +2154,62 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  <cellStyles count="46">
+    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2437,13 +2487,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L251"/>
+  <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2480,8 +2549,17 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>537</v>
+      </c>
+      <c r="N1" t="s">
+        <v>538</v>
+      </c>
+      <c r="O1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2518,8 +2596,20 @@
       <c r="L2">
         <v>0.30503580699999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f xml:space="preserve"> (305 + 66.81 * I2 - IF(B2="Store Mailing List", 242.76, 0) + IF(B2="Loyalty Club and Credit Card", 281.69, 0) - IF(B2="Loyalty Club Only", 150.03, 0) + IF(B2="Credit Card Only", 0)) * L2</f>
+        <v>108.40972580779999</v>
+      </c>
+      <c r="N2">
+        <f>M2 * 0.5 - 6.5</f>
+        <v>47.704862903899993</v>
+      </c>
+      <c r="O2">
+        <f>SUM(N:N)</f>
+        <v>22014.595373307369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2556,8 +2646,16 @@
       <c r="L3">
         <v>0.472724537</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="0" xml:space="preserve"> (305 + 66.81 * I3 - IF(B3="Store Mailing List", 242.76, 0) + IF(B3="Loyalty Club and Credit Card", 281.69, 0) - IF(B3="Loyalty Club Only", 150.03, 0) + IF(B3="Credit Card Only", 0)) * L3</f>
+        <v>466.83911651435</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="1">M3 * 0.5 - 6.5</f>
+        <v>226.919558257175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2594,8 +2692,16 @@
       <c r="L4">
         <v>0.57888185000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>360.43499508400009</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>173.71749754200005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2632,8 +2738,16 @@
       <c r="L5">
         <v>0.30513781099999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>88.059720876490005</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>37.529860438245002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2670,8 +2784,16 @@
       <c r="L6">
         <v>0.38770585499999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>163.69328903955</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>75.346644519774998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2708,8 +2830,16 @@
       <c r="L7">
         <v>0.267278293</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>206.51791865231002</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>96.758959326155008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2746,8 +2876,16 @@
       <c r="L8">
         <v>0.22173949400000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>189.35000611142002</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>88.175003055710008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2784,8 +2922,16 @@
       <c r="L9">
         <v>0.19344714900000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>136.54660459314002</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>61.773302296570009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2822,8 +2968,16 @@
       <c r="L10">
         <v>0.25065761399999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>176.92918341804</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>81.964591709019999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +3014,16 @@
       <c r="L11">
         <v>0.26452315199999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>111.68432000592</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>49.34216000296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2898,8 +3060,16 @@
       <c r="L12">
         <v>0.190541402</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>37.319438995719999</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>12.159719497859999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2936,8 +3106,16 @@
       <c r="L13">
         <v>0.19154490499999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>119.26351964920001</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>53.131759824600003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2974,8 +3152,16 @@
       <c r="L14">
         <v>0.212284098</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>89.628469016580013</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>38.314234508290006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3012,8 +3198,16 @@
       <c r="L15">
         <v>0.27796209500000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>177.63167680974999</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>82.315838404874995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -3050,8 +3244,16 @@
       <c r="L16">
         <v>0.26970955200000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>208.39647954384003</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>97.698239771920015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3088,8 +3290,16 @@
       <c r="L17">
         <v>0.238435971</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>84.740144093399991</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>35.870072046699995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -3126,8 +3336,16 @@
       <c r="L18">
         <v>0.23297942399999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>113.93159792447999</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>50.465798962239994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -3164,8 +3382,16 @@
       <c r="L19">
         <v>0.21210828600000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>47.041375669080004</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>17.020687834540002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -3202,8 +3428,16 @@
       <c r="L20">
         <v>0.22160676600000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>529.76427052895997</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>258.38213526447998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -3240,8 +3474,16 @@
       <c r="L21">
         <v>0.19171627499999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>96.899156873249993</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>41.949578436624996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -3278,8 +3520,16 @@
       <c r="L22">
         <v>0.326687748</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>181.58285097084001</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>84.291425485420007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3316,8 +3566,16 @@
       <c r="L23">
         <v>0.23341563700000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>82.955917389799993</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>34.977958694899996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -3354,8 +3612,16 @@
       <c r="L24">
         <v>0.27304769400000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>151.76809975602001</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>69.384049878010003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -3392,8 +3658,16 @@
       <c r="L25">
         <v>0.19725817300000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>70.105554684200001</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>28.552777342100001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -3430,8 +3704,16 @@
       <c r="L26">
         <v>0.62724496600000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>348.64156945178001</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>167.82078472589001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -3468,8 +3750,16 @@
       <c r="L27">
         <v>0.24007403299999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>69.282965183470012</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>28.141482591735006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -3506,8 +3796,16 @@
       <c r="L28">
         <v>0.25712037599999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>185.20637803655998</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>86.103189018279991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3544,8 +3842,16 @@
       <c r="L29">
         <v>0.61307269399999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>391.78410510069995</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>189.39205255034997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -3582,8 +3888,16 @@
       <c r="L30">
         <v>0.38621956099999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>536.23110068800997</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>261.61555034400499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3620,8 +3934,16 @@
       <c r="L31">
         <v>0.38321151599999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>136.19337278639998</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>61.596686393199988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -3658,8 +3980,16 @@
       <c r="L32">
         <v>0.29298455800000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>104.1267119132</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>45.563355956599999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -3696,8 +4026,16 @@
       <c r="L33">
         <v>0.24377779299999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>188.35978731731001</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>87.679893658655004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -3734,8 +4072,16 @@
       <c r="L34">
         <v>0.40985869899999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>289.30286127613999</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>138.15143063807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -3772,8 +4118,16 @@
       <c r="L35">
         <v>0.22907971799999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>60.172369527059999</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>23.586184763529999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -3810,8 +4164,16 @@
       <c r="L36">
         <v>0.35448979200000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>273.90362758464005</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>130.45181379232002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -3848,8 +4210,16 @@
       <c r="L37">
         <v>0.20120116699999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>252.46521233992996</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>119.73260616996498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -3886,8 +4256,16 @@
       <c r="L38">
         <v>0.213904022</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>118.89427254826001</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>52.947136274130003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -3924,8 +4302,16 @@
       <c r="L39">
         <v>0.22415280500000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>143.24485003525001</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>65.122425017625005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -3962,8 +4348,16 @@
       <c r="L40">
         <v>0.19136229799999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>93.579990967959986</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>40.289995483979993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -4000,8 +4394,16 @@
       <c r="L41">
         <v>0.49015270799999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>337.93578453060002</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>162.46789226530001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -4038,8 +4440,16 @@
       <c r="L42">
         <v>0.39429266099999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>442.06910273337002</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="1"/>
+        <v>214.53455136668501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -4076,8 +4486,16 @@
       <c r="L43">
         <v>0.23105563900000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>259.05265077763005</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>123.02632538881502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -4114,8 +4532,16 @@
       <c r="L44">
         <v>0.481368976</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>138.91827278384002</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>62.959136391920012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -4152,8 +4578,16 @@
       <c r="L45">
         <v>0.18732610099999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>91.606209911019988</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>39.303104955509994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -4190,8 +4624,16 @@
       <c r="L46">
         <v>0.207404056</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>301.81853037232003</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="1"/>
+        <v>144.40926518616001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -4228,8 +4670,16 @@
       <c r="L47">
         <v>0.28427938699999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>200.66144810782001</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>93.830724053910004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>123</v>
       </c>
@@ -4266,8 +4716,16 @@
       <c r="L48">
         <v>0.202412487</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>129.35169981734998</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="1"/>
+        <v>58.175849908674991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -4304,8 +4762,16 @@
       <c r="L49">
         <v>0.74854627200000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>146.61027283392002</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>66.805136416960011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -4342,8 +4808,16 @@
       <c r="L50">
         <v>0.21154409499999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>117.58255432385</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="1"/>
+        <v>52.291277161925002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -4380,8 +4854,16 @@
       <c r="L51">
         <v>0.190822935</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>55.069590811650009</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>21.034795405825005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -4418,8 +4900,16 @@
       <c r="L52">
         <v>0.28486938000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>101.24257765199999</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="1"/>
+        <v>44.121288825999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -4456,8 +4946,16 @@
       <c r="L53">
         <v>0.36600523699999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>154.53107111377</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="1"/>
+        <v>70.765535556884998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -4494,8 +4992,16 @@
       <c r="L54">
         <v>0.25531713499999997</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>129.04493954304999</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="1"/>
+        <v>58.022469771524996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -4532,8 +5038,16 @@
       <c r="L55">
         <v>0.50114359600000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>144.62503036964003</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>65.812515184820015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -4570,8 +5084,16 @@
       <c r="L56">
         <v>0.19502314300000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>43.252232654540002</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>15.126116327270001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -4608,8 +5130,16 @@
       <c r="L57">
         <v>0.194825795</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>43.208464815100001</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="1"/>
+        <v>15.104232407550001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -4646,8 +5176,16 @@
       <c r="L58">
         <v>0.99882496200000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>771.76208338854008</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="1"/>
+        <v>379.38104169427004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -4684,8 +5222,16 @@
       <c r="L59">
         <v>0.268190172</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>166.98592869408003</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="1"/>
+        <v>76.992964347040015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -4722,8 +5268,16 @@
       <c r="L60">
         <v>0.21355267999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>150.73829470480001</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="1"/>
+        <v>68.869147352400006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>151</v>
       </c>
@@ -4760,8 +5314,16 @@
       <c r="L61">
         <v>0.18643868099999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>78.716275505010003</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="1"/>
+        <v>32.858137752505002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -4798,8 +5360,16 @@
       <c r="L62">
         <v>0.204701043</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>72.750750682199993</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="1"/>
+        <v>29.875375341099996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>155</v>
       </c>
@@ -4836,8 +5406,16 @@
       <c r="L63">
         <v>0.19957677400000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>127.5395374247</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="1"/>
+        <v>57.26976871235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>157</v>
       </c>
@@ -4874,8 +5452,16 @@
       <c r="L64">
         <v>0.23578850800000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>99.552265962680011</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="1"/>
+        <v>43.276132981340005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>160</v>
       </c>
@@ -4912,8 +5498,16 @@
       <c r="L65">
         <v>0.206906695</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>115.00494828185001</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="1"/>
+        <v>51.002474140925003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>162</v>
       </c>
@@ -4950,8 +5544,16 @@
       <c r="L66">
         <v>0.20274335399999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>85.600271492339999</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="1"/>
+        <v>36.30013574617</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>164</v>
       </c>
@@ -4988,8 +5590,16 @@
       <c r="L67">
         <v>0.54112264600000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <f t="shared" ref="M67:M130" si="2" xml:space="preserve"> (305 + 66.81 * I67 - IF(B67="Store Mailing List", 242.76, 0) + IF(B67="Loyalty Club and Credit Card", 281.69, 0) - IF(B67="Loyalty Club Only", 150.03, 0) + IF(B67="Credit Card Only", 0)) * L67</f>
+        <v>381.95683090556003</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="3">M67 * 0.5 - 6.5</f>
+        <v>184.47841545278001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>166</v>
       </c>
@@ -5026,8 +5636,16 @@
       <c r="L68">
         <v>0.25644796399999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <f t="shared" si="2"/>
+        <v>163.88307139419996</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="3"/>
+        <v>75.44153569709998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>168</v>
       </c>
@@ -5064,8 +5682,16 @@
       <c r="L69">
         <v>0.24255331899999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <f t="shared" si="2"/>
+        <v>31.301505816950002</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="3"/>
+        <v>9.1507529084750008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>170</v>
       </c>
@@ -5102,8 +5728,16 @@
       <c r="L70">
         <v>0.246686406</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <f t="shared" si="2"/>
+        <v>71.191229907540006</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="3"/>
+        <v>29.095614953770003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>172</v>
       </c>
@@ -5140,8 +5774,16 @@
       <c r="L71">
         <v>0.1931495</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <f t="shared" si="2"/>
+        <v>94.453968489999994</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="3"/>
+        <v>40.726984244999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>174</v>
       </c>
@@ -5178,8 +5820,16 @@
       <c r="L72">
         <v>0.200860496</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f t="shared" si="2"/>
+        <v>39.340536746560005</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="3"/>
+        <v>13.170268373280003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -5216,8 +5866,16 @@
       <c r="L73">
         <v>0.31807552300000003</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <f t="shared" si="2"/>
+        <v>245.76741435641006</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="3"/>
+        <v>116.38370717820503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>178</v>
       </c>
@@ -5254,8 +5912,16 @@
       <c r="L74">
         <v>0.21379023799999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f t="shared" si="2"/>
+        <v>165.18930319546001</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="3"/>
+        <v>76.094651597730007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>180</v>
       </c>
@@ -5292,8 +5958,16 @@
       <c r="L75">
         <v>0.434214031</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <f t="shared" si="2"/>
+        <v>241.34918485073001</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="3"/>
+        <v>114.17459242536501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>182</v>
       </c>
@@ -5330,8 +6004,16 @@
       <c r="L76">
         <v>0.56531730099999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <f t="shared" si="2"/>
+        <v>163.14491989559002</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="3"/>
+        <v>75.072459947795011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>184</v>
       </c>
@@ -5368,8 +6050,16 @@
       <c r="L77">
         <v>0.66242807199999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <f t="shared" si="2"/>
+        <v>191.17011729848002</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="3"/>
+        <v>89.085058649240011</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -5406,8 +6096,16 @@
       <c r="L78">
         <v>0.19257263599999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <f t="shared" si="2"/>
+        <v>68.440314834399999</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="3"/>
+        <v>27.720157417199999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>188</v>
       </c>
@@ -5444,8 +6142,16 @@
       <c r="L79">
         <v>0.22685629299999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <f t="shared" si="2"/>
+        <v>208.87566321681999</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="3"/>
+        <v>97.937831608409994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -5482,8 +6188,16 @@
       <c r="L80">
         <v>0.20422359900000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <f t="shared" si="2"/>
+        <v>45.292709786220001</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="3"/>
+        <v>16.146354893110001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>192</v>
       </c>
@@ -5520,8 +6234,16 @@
       <c r="L81">
         <v>0.28931545800000003</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <f t="shared" si="2"/>
+        <v>56.665325603880007</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="3"/>
+        <v>21.832662801940003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>194</v>
       </c>
@@ -5558,8 +6280,16 @@
       <c r="L82">
         <v>0.26960356299999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <f t="shared" si="2"/>
+        <v>95.817106290199987</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="3"/>
+        <v>41.408553145099994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>196</v>
       </c>
@@ -5596,8 +6326,16 @@
       <c r="L83">
         <v>0.20965584400000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <f t="shared" si="2"/>
+        <v>88.518793895240009</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="3"/>
+        <v>37.759396947620004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>198</v>
       </c>
@@ -5634,8 +6372,16 @@
       <c r="L84">
         <v>0.60683109499999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <f t="shared" si="2"/>
+        <v>256.21015661995</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="3"/>
+        <v>121.605078309975</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -5672,8 +6418,16 @@
       <c r="L85">
         <v>0.190932877</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <f t="shared" si="2"/>
+        <v>80.613769998170014</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="3"/>
+        <v>33.806884999085007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>203</v>
       </c>
@@ -5710,8 +6464,16 @@
       <c r="L86">
         <v>0.19657658</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <f t="shared" si="2"/>
+        <v>138.7555447588</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="3"/>
+        <v>62.8777723794</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>205</v>
       </c>
@@ -5748,8 +6510,16 @@
       <c r="L87">
         <v>0.25236414000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <f t="shared" si="2"/>
+        <v>232.36175826360002</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="3"/>
+        <v>109.68087913180001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -5786,8 +6556,16 @@
       <c r="L88">
         <v>0.467544876</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <f t="shared" si="2"/>
+        <v>298.78455300779996</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="3"/>
+        <v>142.89227650389998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>209</v>
       </c>
@@ -5824,8 +6602,16 @@
       <c r="L89">
         <v>0.25396285200000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <f t="shared" si="2"/>
+        <v>107.22565574292001</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="3"/>
+        <v>47.112827871460006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>211</v>
       </c>
@@ -5862,8 +6648,16 @@
       <c r="L90">
         <v>0.28849132199999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <f t="shared" si="2"/>
+        <v>37.229805104100002</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="3"/>
+        <v>12.114902552050001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>213</v>
       </c>
@@ -5900,8 +6694,16 @@
       <c r="L91">
         <v>0.62312773099999996</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <f t="shared" si="2"/>
+        <v>439.84094020365995</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="3"/>
+        <v>213.42047010182998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -5938,8 +6740,16 @@
       <c r="L92">
         <v>0.40099553900000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <f t="shared" si="2"/>
+        <v>276.46637436355002</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="3"/>
+        <v>131.73318718177501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -5976,8 +6786,16 @@
       <c r="L93">
         <v>0.34728293399999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <f t="shared" si="2"/>
+        <v>245.13313179323998</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="3"/>
+        <v>116.06656589661999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -6014,8 +6832,16 @@
       <c r="L94">
         <v>0.34281482400000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <f t="shared" si="2"/>
+        <v>98.932930058160011</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="3"/>
+        <v>42.966465029080005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -6052,8 +6878,16 @@
       <c r="L95">
         <v>0.38533516400000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <f t="shared" si="2"/>
+        <v>136.94811728560001</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="3"/>
+        <v>61.974058642800003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>223</v>
       </c>
@@ -6090,8 +6924,16 @@
       <c r="L96">
         <v>0.90327840999999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <f t="shared" si="2"/>
+        <v>441.72120805819998</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="3"/>
+        <v>214.36060402909999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>225</v>
       </c>
@@ -6128,8 +6970,16 @@
       <c r="L97">
         <v>0.20291081799999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <f t="shared" si="2"/>
+        <v>26.1856410629</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="3"/>
+        <v>6.5928205314500001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>227</v>
       </c>
@@ -6166,8 +7016,16 @@
       <c r="L98">
         <v>0.997198264</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <f t="shared" si="2"/>
+        <v>554.27271107912009</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="3"/>
+        <v>270.63635553956004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -6204,8 +7062,16 @@
       <c r="L99">
         <v>0.22978557399999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <f t="shared" si="2"/>
+        <v>97.01776719854</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="3"/>
+        <v>42.00888359927</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>231</v>
       </c>
@@ -6242,8 +7108,16 @@
       <c r="L100">
         <v>0.41528256699999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <f t="shared" si="2"/>
+        <v>92.101367709260003</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="3"/>
+        <v>39.550683854630002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>233</v>
       </c>
@@ -6280,8 +7154,16 @@
       <c r="L101">
         <v>0.86891464500000004</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <f t="shared" si="2"/>
+        <v>170.18562236970001</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="3"/>
+        <v>78.592811184850007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>235</v>
       </c>
@@ -6318,8 +7200,16 @@
       <c r="L102">
         <v>0.22552014300000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <f t="shared" si="2"/>
+        <v>95.216859576030018</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="3"/>
+        <v>41.108429788015009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>237</v>
       </c>
@@ -6356,8 +7246,16 @@
       <c r="L103">
         <v>0.41548464299999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <f t="shared" si="2"/>
+        <v>147.66324212219999</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="3"/>
+        <v>67.331621061099995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>239</v>
       </c>
@@ -6394,8 +7292,16 @@
       <c r="L104">
         <v>0.198583021</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <f t="shared" si="2"/>
+        <v>113.63714793704</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="3"/>
+        <v>50.318573968519999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>241</v>
       </c>
@@ -6432,8 +7338,16 @@
       <c r="L105">
         <v>0.696914637</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <f t="shared" si="2"/>
+        <v>688.23804976935003</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="3"/>
+        <v>337.61902488467501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>243</v>
       </c>
@@ -6470,8 +7384,16 @@
       <c r="L106">
         <v>0.194225433</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <f t="shared" si="2"/>
+        <v>124.11976295865</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="3"/>
+        <v>55.559881479325</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>245</v>
       </c>
@@ -6508,8 +7430,16 @@
       <c r="L107">
         <v>0.38174172200000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <f t="shared" si="2"/>
+        <v>135.67100799880001</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="3"/>
+        <v>61.335503999400004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>247</v>
       </c>
@@ -6546,8 +7476,16 @@
       <c r="L108">
         <v>0.347213357</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <f t="shared" si="2"/>
+        <v>221.88669579084998</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="3"/>
+        <v>104.44334789542499</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>249</v>
       </c>
@@ -6584,8 +7522,16 @@
       <c r="L109">
         <v>0.73594038100000003</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <f t="shared" si="2"/>
+        <v>775.94610011116015</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="3"/>
+        <v>381.47305005558007</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>251</v>
       </c>
@@ -6622,8 +7568,16 @@
       <c r="L110">
         <v>0.20697764299999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <f t="shared" si="2"/>
+        <v>115.04438330869</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="3"/>
+        <v>51.022191654345001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>253</v>
       </c>
@@ -6660,8 +7614,16 @@
       <c r="L111">
         <v>0.19342088399999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <f t="shared" si="2"/>
+        <v>42.89688365352</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="3"/>
+        <v>14.94844182676</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>255</v>
       </c>
@@ -6698,8 +7660,16 @@
       <c r="L112">
         <v>0.190638001</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <f t="shared" si="2"/>
+        <v>121.82721453904999</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="3"/>
+        <v>54.413607269524995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>257</v>
       </c>
@@ -6736,8 +7706,16 @@
       <c r="L113">
         <v>0.36029085500000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <f t="shared" si="2"/>
+        <v>355.80523385524998</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="3"/>
+        <v>171.40261692762499</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>259</v>
       </c>
@@ -6774,8 +7752,16 @@
       <c r="L114">
         <v>0.387358706</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <f t="shared" si="2"/>
+        <v>247.54158106929998</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="3"/>
+        <v>117.27079053464999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>261</v>
       </c>
@@ -6812,8 +7798,16 @@
       <c r="L115">
         <v>0.25736213000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <f t="shared" si="2"/>
+        <v>108.66086490730002</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="3"/>
+        <v>47.830432453650012</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -6850,8 +7844,16 @@
       <c r="L116">
         <v>0.728853007</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <f t="shared" si="2"/>
+        <v>417.07884472568003</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="3"/>
+        <v>202.03942236284001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>265</v>
       </c>
@@ -6888,8 +7890,16 @@
       <c r="L117">
         <v>0.295262829</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <f t="shared" si="2"/>
+        <v>124.66291903209002</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="3"/>
+        <v>55.831459516045008</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>267</v>
       </c>
@@ -6926,8 +7936,16 @@
       <c r="L118">
         <v>0.407311372</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <f t="shared" si="2"/>
+        <v>260.29233227660001</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="3"/>
+        <v>123.6461661383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>269</v>
       </c>
@@ -6964,8 +7982,16 @@
       <c r="L119">
         <v>0.19669056800000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <f t="shared" si="2"/>
+        <v>25.382917800400005</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="3"/>
+        <v>6.1914589002000024</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>271</v>
       </c>
@@ -7002,8 +8028,16 @@
       <c r="L120">
         <v>0.335099172</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <f t="shared" si="2"/>
+        <v>236.53310154792001</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="3"/>
+        <v>111.76655077396001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>273</v>
       </c>
@@ -7040,8 +8074,16 @@
       <c r="L121">
         <v>0.20886049400000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <f t="shared" si="2"/>
+        <v>102.13695877588</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="3"/>
+        <v>44.568479387940002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>275</v>
       </c>
@@ -7078,8 +8120,16 @@
       <c r="L122">
         <v>0.20524916600000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <f t="shared" si="2"/>
+        <v>72.945553596400003</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="3"/>
+        <v>29.972776798200002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>277</v>
       </c>
@@ -7116,8 +8166,16 @@
       <c r="L123">
         <v>0.235958794</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123">
+        <f t="shared" si="2"/>
+        <v>68.095348360460008</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="3"/>
+        <v>27.547674180230004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>279</v>
       </c>
@@ -7154,8 +8212,16 @@
       <c r="L124">
         <v>0.30889710399999998</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <f t="shared" si="2"/>
+        <v>197.40069431119997</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="3"/>
+        <v>92.200347155599985</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>281</v>
       </c>
@@ -7192,8 +8258,16 @@
       <c r="L125">
         <v>0.192939324</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <f t="shared" si="2"/>
+        <v>123.29787500219999</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="3"/>
+        <v>55.148937501099994</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>283</v>
       </c>
@@ -7230,8 +8304,16 @@
       <c r="L126">
         <v>0.20695392200000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <f t="shared" si="2"/>
+        <v>128.85778999408004</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="3"/>
+        <v>57.928894997040018</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>285</v>
       </c>
@@ -7268,8 +8350,16 @@
       <c r="L127">
         <v>0.330272968</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <f t="shared" si="2"/>
+        <v>321.38862516080002</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="3"/>
+        <v>154.19431258040001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>287</v>
       </c>
@@ -7306,8 +8396,16 @@
       <c r="L128">
         <v>0.237013536</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <f t="shared" si="2"/>
+        <v>115.90435937471999</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="3"/>
+        <v>51.452179687359994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -7344,8 +8442,16 @@
       <c r="L129">
         <v>0.23443860899999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <f t="shared" si="2"/>
+        <v>149.81799308145</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="3"/>
+        <v>68.408996540724999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>291</v>
       </c>
@@ -7382,8 +8488,16 @@
       <c r="L130">
         <v>0.251869285</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130">
+        <f t="shared" si="2"/>
+        <v>72.686956958150006</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="3"/>
+        <v>29.843478479075003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>293</v>
       </c>
@@ -7420,8 +8534,16 @@
       <c r="L131">
         <v>0.30242839199999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <f t="shared" ref="M131:M194" si="4" xml:space="preserve"> (305 + 66.81 * I131 - IF(B131="Store Mailing List", 242.76, 0) + IF(B131="Loyalty Club and Credit Card", 281.69, 0) - IF(B131="Loyalty Club Only", 150.03, 0) + IF(B131="Credit Card Only", 0)) * L131</f>
+        <v>233.67734564664002</v>
+      </c>
+      <c r="N131">
+        <f t="shared" ref="N131:N194" si="5">M131 * 0.5 - 6.5</f>
+        <v>110.33867282332001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>295</v>
       </c>
@@ -7458,8 +8580,16 @@
       <c r="L132">
         <v>0.375563594</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132">
+        <f t="shared" si="4"/>
+        <v>158.56670502274002</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="5"/>
+        <v>72.783352511370012</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>297</v>
       </c>
@@ -7496,8 +8626,16 @@
       <c r="L133">
         <v>0.43239717700000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <f t="shared" si="4"/>
+        <v>276.32341596185</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="5"/>
+        <v>131.661707980925</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>299</v>
       </c>
@@ -7534,8 +8672,16 @@
       <c r="L134">
         <v>0.25093504700000002</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <f t="shared" si="4"/>
+        <v>105.94728619387001</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="5"/>
+        <v>46.473643096935007</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>301</v>
       </c>
@@ -7572,8 +8718,16 @@
       <c r="L135">
         <v>0.34201468200000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <f t="shared" si="4"/>
+        <v>172.86448072326002</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="5"/>
+        <v>79.932240361630008</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>303</v>
       </c>
@@ -7610,8 +8764,16 @@
       <c r="L136">
         <v>0.53399279600000005</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136">
+        <f t="shared" si="4"/>
+        <v>376.92415498456006</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="5"/>
+        <v>181.96207749228003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>305</v>
       </c>
@@ -7648,8 +8810,16 @@
       <c r="L137">
         <v>0.57185430800000003</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137">
+        <f t="shared" si="4"/>
+        <v>317.85378001564004</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="5"/>
+        <v>152.42689000782002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>307</v>
       </c>
@@ -7686,8 +8856,16 @@
       <c r="L138">
         <v>0.52588586599999998</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <f t="shared" si="4"/>
+        <v>336.06736266729996</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="5"/>
+        <v>161.53368133364998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>309</v>
       </c>
@@ -7724,8 +8902,16 @@
       <c r="L139">
         <v>0.27945864100000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <f t="shared" si="4"/>
+        <v>141.24678092063002</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="5"/>
+        <v>64.123390460315008</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>311</v>
       </c>
@@ -7762,8 +8948,16 @@
       <c r="L140">
         <v>0.33053641700000003</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140">
+        <f t="shared" si="4"/>
+        <v>211.22929728385</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="5"/>
+        <v>99.114648641925001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>313</v>
       </c>
@@ -7800,8 +8994,16 @@
       <c r="L141">
         <v>0.21394580499999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <f t="shared" si="4"/>
+        <v>90.330058329050004</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="5"/>
+        <v>38.665029164525002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>315</v>
       </c>
@@ -7838,8 +9040,16 @@
       <c r="L142">
         <v>0.74127199600000004</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <f t="shared" si="4"/>
+        <v>362.49683148392</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="5"/>
+        <v>174.74841574196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>317</v>
       </c>
@@ -7876,8 +9086,16 @@
       <c r="L143">
         <v>0.31208787999999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <f t="shared" si="4"/>
+        <v>131.7666238148</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="5"/>
+        <v>59.3833119074</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>319</v>
       </c>
@@ -7914,8 +9132,16 @@
       <c r="L144">
         <v>0.23846350499999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144">
+        <f t="shared" si="4"/>
+        <v>152.39010287024999</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="5"/>
+        <v>69.695051435124995</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>321</v>
       </c>
@@ -7952,8 +9178,16 @@
       <c r="L145">
         <v>0.65268244499999994</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145">
+        <f t="shared" si="4"/>
+        <v>275.56905510345001</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="5"/>
+        <v>131.28452755172501</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>323</v>
       </c>
@@ -7990,8 +9224,16 @@
       <c r="L146">
         <v>0.25220889499999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146">
+        <f t="shared" si="4"/>
+        <v>194.87424689965002</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="5"/>
+        <v>90.937123449825009</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>325</v>
       </c>
@@ -8028,8 +9270,16 @@
       <c r="L147">
         <v>0.756017995</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147">
+        <f t="shared" si="4"/>
+        <v>319.19835766895005</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="5"/>
+        <v>153.09917883447503</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>327</v>
       </c>
@@ -8066,8 +9316,16 @@
       <c r="L148">
         <v>0.18899550800000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148">
+        <f t="shared" si="4"/>
+        <v>237.14967348332002</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="5"/>
+        <v>112.07483674166001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>329</v>
       </c>
@@ -8104,8 +9362,16 @@
       <c r="L149">
         <v>0.1921786</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149">
+        <f t="shared" si="4"/>
+        <v>55.460822174000008</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="5"/>
+        <v>21.230411087000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>331</v>
       </c>
@@ -8142,8 +9408,16 @@
       <c r="L150">
         <v>0.28263343699999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150">
+        <f t="shared" si="4"/>
+        <v>119.33066343577001</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="5"/>
+        <v>53.165331717885003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>333</v>
       </c>
@@ -8180,8 +9454,16 @@
       <c r="L151">
         <v>0.47244747599999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151">
+        <f t="shared" si="4"/>
+        <v>231.03626471351998</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="5"/>
+        <v>109.01813235675999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>335</v>
       </c>
@@ -8218,8 +9500,16 @@
       <c r="L152">
         <v>0.18771602600000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152">
+        <f t="shared" si="4"/>
+        <v>82.33600332412</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="5"/>
+        <v>34.66800166206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>337</v>
       </c>
@@ -8256,8 +9546,16 @@
       <c r="L153">
         <v>0.55884010100000003</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153">
+        <f t="shared" si="4"/>
+        <v>235.94787904321004</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="5"/>
+        <v>111.47393952160502</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>339</v>
       </c>
@@ -8294,8 +9592,16 @@
       <c r="L154">
         <v>0.98223442000000005</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154">
+        <f t="shared" si="4"/>
+        <v>693.31998770120003</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="5"/>
+        <v>340.15999385060002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>341</v>
       </c>
@@ -8332,8 +9638,16 @@
       <c r="L155">
         <v>0.229408525</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155">
+        <f t="shared" si="4"/>
+        <v>127.51214045075001</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="5"/>
+        <v>57.256070225375005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>343</v>
       </c>
@@ -8370,8 +9684,16 @@
       <c r="L156">
         <v>0.220976802</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156">
+        <f t="shared" si="4"/>
+        <v>49.008235147560001</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="5"/>
+        <v>18.00411757378</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>345</v>
       </c>
@@ -8408,8 +9730,16 @@
       <c r="L157">
         <v>0.225151025</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157">
+        <f t="shared" si="4"/>
+        <v>80.018674285000003</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="5"/>
+        <v>33.509337142500002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>347</v>
       </c>
@@ -8446,8 +9776,16 @@
       <c r="L158">
         <v>0.220348242</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158">
+        <f t="shared" si="4"/>
+        <v>170.25647614614002</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="5"/>
+        <v>78.628238073070008</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>349</v>
       </c>
@@ -8484,8 +9822,16 @@
       <c r="L159">
         <v>0.19937788000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159">
+        <f t="shared" si="4"/>
+        <v>70.858898551999999</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="5"/>
+        <v>28.929449276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>351</v>
       </c>
@@ -8522,8 +9868,16 @@
       <c r="L160">
         <v>0.47103065399999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160">
+        <f t="shared" si="4"/>
+        <v>104.46517844412</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="5"/>
+        <v>45.73258922206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>353</v>
       </c>
@@ -8560,8 +9914,16 @@
       <c r="L161">
         <v>0.37826958700000002</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161">
+        <f t="shared" si="4"/>
+        <v>74.087881309820006</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="5"/>
+        <v>30.543940654910003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>355</v>
       </c>
@@ -8598,8 +9960,16 @@
       <c r="L162">
         <v>0.90311748999999997</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162">
+        <f t="shared" si="4"/>
+        <v>320.96795594599996</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="5"/>
+        <v>153.98397797299998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>357</v>
       </c>
@@ -8636,8 +10006,16 @@
       <c r="L163">
         <v>0.477434953</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163">
+        <f t="shared" si="4"/>
+        <v>177.51508987493</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="5"/>
+        <v>82.257544937464999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>359</v>
       </c>
@@ -8674,8 +10052,16 @@
       <c r="L164">
         <v>0.240232948</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164">
+        <f t="shared" si="4"/>
+        <v>69.328826463320013</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="5"/>
+        <v>28.164413231660006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>361</v>
       </c>
@@ -8712,8 +10098,16 @@
       <c r="L165">
         <v>0.20727762399999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165">
+        <f t="shared" si="4"/>
+        <v>246.24167175951999</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="5"/>
+        <v>116.62083587975999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>363</v>
       </c>
@@ -8750,8 +10144,16 @@
       <c r="L166">
         <v>0.18738121999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166">
+        <f t="shared" si="4"/>
+        <v>132.26490794919999</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="5"/>
+        <v>59.632453974599997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>365</v>
       </c>
@@ -8788,8 +10190,16 @@
       <c r="L167">
         <v>0.28540892899999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167">
+        <f t="shared" si="4"/>
+        <v>182.39057607744996</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="5"/>
+        <v>84.695288038724982</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>367</v>
       </c>
@@ -8826,8 +10236,16 @@
       <c r="L168">
         <v>0.212397898</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <f t="shared" si="4"/>
+        <v>118.05712364534001</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="5"/>
+        <v>52.528561822670007</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>369</v>
       </c>
@@ -8864,8 +10282,16 @@
       <c r="L169">
         <v>0.69072920299999996</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169">
+        <f t="shared" si="4"/>
+        <v>135.28622169958001</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="5"/>
+        <v>61.143110849790006</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>371</v>
       </c>
@@ -8902,8 +10328,16 @@
       <c r="L170">
         <v>0.226231668</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170">
+        <f t="shared" si="4"/>
+        <v>298.98777242880004</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="5"/>
+        <v>142.99388621440002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>373</v>
       </c>
@@ -8940,8 +10374,16 @@
       <c r="L171">
         <v>0.31573054699999997</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171">
+        <f t="shared" si="4"/>
+        <v>180.67364821528</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="5"/>
+        <v>83.836824107639998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>375</v>
       </c>
@@ -8978,8 +10420,16 @@
       <c r="L172">
         <v>0.62019947600000003</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172">
+        <f t="shared" si="4"/>
+        <v>261.85442076196006</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="5"/>
+        <v>124.42721038098003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>377</v>
       </c>
@@ -9016,8 +10466,16 @@
       <c r="L173">
         <v>0.40871876899999998</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173">
+        <f t="shared" si="4"/>
+        <v>261.19172932944997</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="5"/>
+        <v>124.09586466472499</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>379</v>
       </c>
@@ -9054,8 +10512,16 @@
       <c r="L174">
         <v>0.20889311799999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174">
+        <f t="shared" si="4"/>
+        <v>74.240614137199998</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="5"/>
+        <v>30.620307068599999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>381</v>
       </c>
@@ -9092,8 +10558,16 @@
       <c r="L175">
         <v>0.23043298200000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175">
+        <f t="shared" si="4"/>
+        <v>143.47679191248002</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="5"/>
+        <v>65.238395956240012</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>383</v>
       </c>
@@ -9130,8 +10604,16 @@
       <c r="L176">
         <v>0.38457783499999998</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176">
+        <f t="shared" si="4"/>
+        <v>75.323414763100004</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="5"/>
+        <v>31.161707381550002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>385</v>
       </c>
@@ -9168,8 +10650,16 @@
       <c r="L177">
         <v>0.42744749799999998</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177">
+        <f t="shared" si="4"/>
+        <v>507.79907867404</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="5"/>
+        <v>247.39953933702</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>387</v>
       </c>
@@ -9206,8 +10696,16 @@
       <c r="L178">
         <v>0.27713596600000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178">
+        <f t="shared" si="4"/>
+        <v>214.13464684922002</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="5"/>
+        <v>100.56732342461001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>389</v>
       </c>
@@ -9244,8 +10742,16 @@
       <c r="L179">
         <v>0.92694539799999998</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179">
+        <f t="shared" si="4"/>
+        <v>592.36445659189997</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="5"/>
+        <v>289.68222829594998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>391</v>
       </c>
@@ -9282,8 +10788,16 @@
       <c r="L180">
         <v>0.211074821</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180">
+        <f t="shared" si="4"/>
+        <v>103.21980896542</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="5"/>
+        <v>45.10990448271</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>393</v>
       </c>
@@ -9320,8 +10834,16 @@
       <c r="L181">
         <v>0.36646952500000002</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181">
+        <f t="shared" si="4"/>
+        <v>203.69475608075001</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="5"/>
+        <v>95.347378040375006</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>395</v>
       </c>
@@ -9358,8 +10880,16 @@
       <c r="L182">
         <v>0.196525851</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182">
+        <f t="shared" si="4"/>
+        <v>25.361661071550003</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="5"/>
+        <v>6.1808305357750015</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>397</v>
       </c>
@@ -9396,8 +10926,16 @@
       <c r="L183">
         <v>0.185729488</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183">
+        <f t="shared" si="4"/>
+        <v>131.09901639968001</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="5"/>
+        <v>59.049508199840005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>399</v>
       </c>
@@ -9434,8 +10972,16 @@
       <c r="L184">
         <v>0.37762712399999998</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184">
+        <f t="shared" si="4"/>
+        <v>241.32261359219996</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="5"/>
+        <v>114.16130679609998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>402</v>
       </c>
@@ -9472,8 +11018,16 @@
       <c r="L185">
         <v>0.99999792399999998</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185">
+        <f t="shared" si="4"/>
+        <v>639.0486733322</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="5"/>
+        <v>313.0243366661</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>404</v>
       </c>
@@ -9510,8 +11064,16 @@
       <c r="L186">
         <v>0.35312995600000002</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186">
+        <f t="shared" si="4"/>
+        <v>45.571420821800004</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="5"/>
+        <v>16.285710410900002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>406</v>
       </c>
@@ -9548,8 +11110,16 @@
       <c r="L187">
         <v>0.30976582000000003</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187">
+        <f t="shared" si="4"/>
+        <v>260.04221057360002</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="5"/>
+        <v>123.52110528680001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>408</v>
       </c>
@@ -9586,8 +11156,16 @@
       <c r="L188">
         <v>0.193144598</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188">
+        <f t="shared" si="4"/>
+        <v>68.643590129199993</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="5"/>
+        <v>27.821795064599996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>410</v>
       </c>
@@ -9624,8 +11202,16 @@
       <c r="L189">
         <v>0.19539134799999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189">
+        <f t="shared" si="4"/>
+        <v>82.49618103908</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="5"/>
+        <v>34.74809051954</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>412</v>
       </c>
@@ -9662,8 +11248,16 @@
       <c r="L190">
         <v>0.33073484199999997</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190">
+        <f t="shared" si="4"/>
+        <v>211.35610078009998</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="5"/>
+        <v>99.178050390049989</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>414</v>
       </c>
@@ -9700,8 +11294,16 @@
       <c r="L191">
         <v>0.33436614799999997</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191">
+        <f t="shared" si="4"/>
+        <v>141.17273134708</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="5"/>
+        <v>64.086365673540001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>416</v>
       </c>
@@ -9738,8 +11340,16 @@
       <c r="L192">
         <v>0.53296923200000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192">
+        <f t="shared" si="4"/>
+        <v>411.80933648944006</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="5"/>
+        <v>199.40466824472003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>418</v>
       </c>
@@ -9776,8 +11386,16 @@
       <c r="L193">
         <v>0.71832722800000004</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193">
+        <f t="shared" si="4"/>
+        <v>805.3669382167601</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="5"/>
+        <v>396.18346910838005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>420</v>
       </c>
@@ -9814,8 +11432,16 @@
       <c r="L194">
         <v>0.19453941299999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194">
+        <f t="shared" si="4"/>
+        <v>124.32041187764999</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="5"/>
+        <v>55.660205938824994</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>422</v>
       </c>
@@ -9852,8 +11478,16 @@
       <c r="L195">
         <v>0.20658236499999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195">
+        <f t="shared" ref="M195:M251" si="6" xml:space="preserve"> (305 + 66.81 * I195 - IF(B195="Store Mailing List", 242.76, 0) + IF(B195="Loyalty Club and Credit Card", 281.69, 0) - IF(B195="Loyalty Club Only", 150.03, 0) + IF(B195="Credit Card Only", 0)) * L195</f>
+        <v>73.419372520999985</v>
+      </c>
+      <c r="N195">
+        <f t="shared" ref="N195:N251" si="7">M195 * 0.5 - 6.5</f>
+        <v>30.209686260499993</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>424</v>
       </c>
@@ -9890,8 +11524,16 @@
       <c r="L196">
         <v>0.64060452700000003</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196">
+        <f t="shared" si="6"/>
+        <v>313.26842579354002</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="7"/>
+        <v>150.13421289677001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>426</v>
       </c>
@@ -9928,8 +11570,16 @@
       <c r="L197">
         <v>0.25257163300000002</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197">
+        <f t="shared" si="6"/>
+        <v>178.28021286938002</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="7"/>
+        <v>82.640106434690011</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>428</v>
       </c>
@@ -9966,8 +11616,16 @@
       <c r="L198">
         <v>0.21258152499999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198">
+        <f t="shared" si="6"/>
+        <v>75.551473984999987</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="7"/>
+        <v>31.275736992499994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>430</v>
       </c>
@@ -10004,8 +11662,16 @@
       <c r="L199">
         <v>0.84421047400000004</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199">
+        <f t="shared" si="6"/>
+        <v>221.74876520558001</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="7"/>
+        <v>104.37438260279001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>432</v>
       </c>
@@ -10042,8 +11708,16 @@
       <c r="L200">
         <v>0.19454253799999999</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200">
+        <f t="shared" si="6"/>
+        <v>38.103101492679997</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="7"/>
+        <v>12.551550746339998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>434</v>
       </c>
@@ -10080,8 +11754,16 @@
       <c r="L201">
         <v>0.210923315</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201">
+        <f t="shared" si="6"/>
+        <v>278.75625310400005</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="7"/>
+        <v>132.87812655200003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>436</v>
       </c>
@@ -10118,8 +11800,16 @@
       <c r="L202">
         <v>0.56343069499999998</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202">
+        <f t="shared" si="6"/>
+        <v>481.13037338135001</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="7"/>
+        <v>234.06518669067501</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>438</v>
       </c>
@@ -10156,8 +11846,16 @@
       <c r="L203">
         <v>0.245712228</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203">
+        <f t="shared" si="6"/>
+        <v>91.358263492679995</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="7"/>
+        <v>39.179131746339998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>440</v>
       </c>
@@ -10194,8 +11892,16 @@
       <c r="L204">
         <v>0.26837336499999997</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204">
+        <f t="shared" si="6"/>
+        <v>95.37989392099999</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="7"/>
+        <v>41.189946960499995</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>442</v>
       </c>
@@ -10232,8 +11938,16 @@
       <c r="L205">
         <v>0.44232325700000003</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205">
+        <f t="shared" si="6"/>
+        <v>186.75330233797001</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="7"/>
+        <v>86.876651168985006</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>444</v>
       </c>
@@ -10270,8 +11984,16 @@
       <c r="L206">
         <v>0.268439704</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206">
+        <f t="shared" si="6"/>
+        <v>113.33792742584001</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="7"/>
+        <v>50.168963712920004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>446</v>
       </c>
@@ -10308,8 +12030,16 @@
       <c r="L207">
         <v>0.25802857200000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207">
+        <f t="shared" si="6"/>
+        <v>203.09944959264001</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="7"/>
+        <v>95.049724796320007</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>448</v>
       </c>
@@ -10346,8 +12076,16 @@
       <c r="L208">
         <v>0.71866595300000002</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208">
+        <f t="shared" si="6"/>
+        <v>303.42795201613006</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="7"/>
+        <v>145.21397600806503</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>450</v>
       </c>
@@ -10384,8 +12122,16 @@
       <c r="L209">
         <v>0.20298744899999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209">
+        <f t="shared" si="6"/>
+        <v>99.264922309979994</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="7"/>
+        <v>43.132461154989997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>452</v>
       </c>
@@ -10422,8 +12168,16 @@
       <c r="L210">
         <v>0.22074221199999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210">
+        <f t="shared" si="6"/>
+        <v>96.821949027439999</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="7"/>
+        <v>41.910974513719999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>454</v>
       </c>
@@ -10460,8 +12214,16 @@
       <c r="L211">
         <v>0.21834590700000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211">
+        <f t="shared" si="6"/>
+        <v>139.53395186834999</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="7"/>
+        <v>63.266975934174994</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>456</v>
       </c>
@@ -10498,8 +12260,16 @@
       <c r="L212">
         <v>0.49590343999999997</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212">
+        <f t="shared" si="6"/>
+        <v>143.1127737496</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="7"/>
+        <v>65.056386874799998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>458</v>
       </c>
@@ -10536,8 +12306,16 @@
       <c r="L213">
         <v>0.230040625</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213">
+        <f t="shared" si="6"/>
+        <v>51.018409812500003</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="7"/>
+        <v>19.009204906250002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>460</v>
       </c>
@@ -10574,8 +12352,16 @@
       <c r="L214">
         <v>0.22603379000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214">
+        <f t="shared" si="6"/>
+        <v>29.169660599500006</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="7"/>
+        <v>8.0848302997500028</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>462</v>
       </c>
@@ -10612,8 +12398,16 @@
       <c r="L215">
         <v>0.99500640900000004</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215">
+        <f t="shared" si="6"/>
+        <v>486.57803412918003</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="7"/>
+        <v>236.78901706459001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>464</v>
       </c>
@@ -10650,8 +12444,16 @@
       <c r="L216">
         <v>0.19863646900000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216">
+        <f t="shared" si="6"/>
+        <v>110.40810856427001</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="7"/>
+        <v>48.704054282135004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>466</v>
       </c>
@@ -10688,8 +12490,16 @@
       <c r="L217">
         <v>0.25795229400000003</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217">
+        <f t="shared" si="6"/>
+        <v>33.288743540700004</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="7"/>
+        <v>10.144371770350002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>468</v>
       </c>
@@ -10726,8 +12536,16 @@
       <c r="L218">
         <v>0.234779407</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218">
+        <f t="shared" si="6"/>
+        <v>165.72139222502</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="7"/>
+        <v>76.360696112509999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>470</v>
       </c>
@@ -10764,8 +12582,16 @@
       <c r="L219">
         <v>0.22868772100000001</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219">
+        <f t="shared" si="6"/>
+        <v>176.70014138507003</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="7"/>
+        <v>81.850070692535013</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>472</v>
       </c>
@@ -10802,8 +12628,16 @@
       <c r="L220">
         <v>0.20074213199999999</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220">
+        <f t="shared" si="6"/>
+        <v>198.24289245659998</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="7"/>
+        <v>92.621446228299988</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>474</v>
       </c>
@@ -10840,8 +12674,16 @@
       <c r="L221">
         <v>0.201315412</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221">
+        <f t="shared" si="6"/>
+        <v>111.89714545196001</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="7"/>
+        <v>49.448572725980007</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>476</v>
       </c>
@@ -10878,8 +12720,16 @@
       <c r="L222">
         <v>0.40873564800000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222">
+        <f t="shared" si="6"/>
+        <v>172.57227794208001</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="7"/>
+        <v>79.786138971040003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>478</v>
       </c>
@@ -10916,8 +12766,16 @@
       <c r="L223">
         <v>0.33625572199999998</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223">
+        <f t="shared" si="6"/>
+        <v>119.50528359879999</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="7"/>
+        <v>53.252641799399996</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>480</v>
       </c>
@@ -10954,8 +12812,16 @@
       <c r="L224">
         <v>0.38620364499999998</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M224">
+        <f t="shared" si="6"/>
+        <v>407.19767514220001</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="7"/>
+        <v>197.09883757110001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>482</v>
       </c>
@@ -10992,8 +12858,16 @@
       <c r="L225">
         <v>0.30567097599999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M225">
+        <f t="shared" si="6"/>
+        <v>129.05734277696001</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="7"/>
+        <v>58.028671388480006</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>484</v>
       </c>
@@ -11030,8 +12904,16 @@
       <c r="L226">
         <v>0.32492758399999999</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M226">
+        <f t="shared" si="6"/>
+        <v>137.18767524064</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="7"/>
+        <v>62.093837620320002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>487</v>
       </c>
@@ -11068,8 +12950,16 @@
       <c r="L227">
         <v>0.86173392699999996</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M227">
+        <f t="shared" si="6"/>
+        <v>363.83268131867004</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="7"/>
+        <v>175.41634065933502</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>489</v>
       </c>
@@ -11106,8 +12996,16 @@
       <c r="L228">
         <v>0.25715539599999998</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M228">
+        <f t="shared" si="6"/>
+        <v>181.51570782055998</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="7"/>
+        <v>84.257853910279991</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>491</v>
       </c>
@@ -11144,8 +13042,16 @@
       <c r="L229">
         <v>0.27437367800000001</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229">
+        <f t="shared" si="6"/>
+        <v>270.9577257089</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="7"/>
+        <v>128.97886285445</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>493</v>
       </c>
@@ -11182,8 +13088,16 @@
       <c r="L230">
         <v>0.19658705700000001</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230">
+        <f t="shared" si="6"/>
+        <v>56.733058779630007</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="7"/>
+        <v>21.866529389815003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>495</v>
       </c>
@@ -11220,8 +13134,16 @@
       <c r="L231">
         <v>0.24739223499999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231">
+        <f t="shared" si="6"/>
+        <v>54.866649878299995</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="7"/>
+        <v>20.933324939149998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>497</v>
       </c>
@@ -11258,8 +13180,16 @@
       <c r="L232">
         <v>0.28286190300000003</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M232">
+        <f t="shared" si="6"/>
+        <v>199.66090285158003</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="7"/>
+        <v>93.330451425790017</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>499</v>
       </c>
@@ -11296,8 +13226,16 @@
       <c r="L233">
         <v>0.193452291</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M233">
+        <f t="shared" si="6"/>
+        <v>107.52658690653001</v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="7"/>
+        <v>47.263293453265007</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>501</v>
       </c>
@@ -11334,8 +13272,16 @@
       <c r="L234">
         <v>0.23563063300000001</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M234">
+        <f t="shared" si="6"/>
+        <v>185.46958384696001</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="7"/>
+        <v>86.234791923480003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>503</v>
       </c>
@@ -11372,8 +13318,16 @@
       <c r="L235">
         <v>0.32773430799999997</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M235">
+        <f t="shared" si="6"/>
+        <v>72.684914828239997</v>
+      </c>
+      <c r="N235">
+        <f t="shared" si="7"/>
+        <v>29.842457414119998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>505</v>
       </c>
@@ -11410,8 +13364,16 @@
       <c r="L236">
         <v>0.28752050800000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M236">
+        <f t="shared" si="6"/>
+        <v>202.94922577688001</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="7"/>
+        <v>94.974612888440006</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>507</v>
       </c>
@@ -11448,8 +13410,16 @@
       <c r="L237">
         <v>0.18905708600000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M237">
+        <f t="shared" si="6"/>
+        <v>120.8169308083</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="7"/>
+        <v>53.90846540415</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>509</v>
       </c>
@@ -11486,8 +13456,16 @@
       <c r="L238">
         <v>0.303377275</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M238">
+        <f t="shared" si="6"/>
+        <v>87.551647792250009</v>
+      </c>
+      <c r="N238">
+        <f t="shared" si="7"/>
+        <v>37.275823896125004</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>511</v>
       </c>
@@ -11524,8 +13502,16 @@
       <c r="L239">
         <v>0.80586839099999996</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M239">
+        <f t="shared" si="6"/>
+        <v>730.35046407938989</v>
+      </c>
+      <c r="N239">
+        <f t="shared" si="7"/>
+        <v>358.67523203969495</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>513</v>
       </c>
@@ -11562,8 +13548,16 @@
       <c r="L240">
         <v>0.24078201599999999</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M240">
+        <f t="shared" si="6"/>
+        <v>137.78510083583998</v>
+      </c>
+      <c r="N240">
+        <f t="shared" si="7"/>
+        <v>62.392550417919992</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>515</v>
       </c>
@@ -11600,8 +13594,16 @@
       <c r="L241">
         <v>0.23030685000000001</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M241">
+        <f t="shared" si="6"/>
+        <v>147.1775924925</v>
+      </c>
+      <c r="N241">
+        <f t="shared" si="7"/>
+        <v>67.088796246249998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>517</v>
       </c>
@@ -11638,8 +13640,16 @@
       <c r="L242">
         <v>0.19079539100000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M242">
+        <f t="shared" si="6"/>
+        <v>80.555722034110005</v>
+      </c>
+      <c r="N242">
+        <f t="shared" si="7"/>
+        <v>33.777861017055002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>519</v>
       </c>
@@ -11676,8 +13686,16 @@
       <c r="L243">
         <v>0.47738814800000001</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M243">
+        <f t="shared" si="6"/>
+        <v>305.07489597939997</v>
+      </c>
+      <c r="N243">
+        <f t="shared" si="7"/>
+        <v>146.03744798969998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>521</v>
       </c>
@@ -11714,8 +13732,16 @@
       <c r="L244">
         <v>0.20032677700000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M244">
+        <f t="shared" si="6"/>
+        <v>168.17032275596</v>
+      </c>
+      <c r="N244">
+        <f t="shared" si="7"/>
+        <v>77.58516137798</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>523</v>
       </c>
@@ -11752,8 +13778,16 @@
       <c r="L245">
         <v>0.28417725999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M245">
+        <f t="shared" si="6"/>
+        <v>181.60347800299999</v>
+      </c>
+      <c r="N245">
+        <f t="shared" si="7"/>
+        <v>84.301739001499996</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>525</v>
       </c>
@@ -11790,8 +13824,16 @@
       <c r="L246">
         <v>0.198620242</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246">
+        <f t="shared" si="6"/>
+        <v>38.901760598120006</v>
+      </c>
+      <c r="N246">
+        <f t="shared" si="7"/>
+        <v>12.950880299060003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>527</v>
       </c>
@@ -11828,8 +13870,16 @@
       <c r="L247">
         <v>0.21619390699999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M247">
+        <f t="shared" si="6"/>
+        <v>325.92961031505996</v>
+      </c>
+      <c r="N247">
+        <f t="shared" si="7"/>
+        <v>156.46480515752998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>529</v>
       </c>
@@ -11866,8 +13916,16 @@
       <c r="L248">
         <v>0.192800104</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M248">
+        <f t="shared" si="6"/>
+        <v>68.521156961599999</v>
+      </c>
+      <c r="N248">
+        <f t="shared" si="7"/>
+        <v>27.7605784808</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>531</v>
       </c>
@@ -11904,8 +13962,16 @@
       <c r="L249">
         <v>0.42345578499999997</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M249">
+        <f t="shared" si="6"/>
+        <v>235.36942897655001</v>
+      </c>
+      <c r="N249">
+        <f t="shared" si="7"/>
+        <v>111.18471448827501</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>533</v>
       </c>
@@ -11942,8 +14008,16 @@
       <c r="L250">
         <v>0.25925051500000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M250">
+        <f t="shared" si="6"/>
+        <v>200.31509542505003</v>
+      </c>
+      <c r="N250">
+        <f t="shared" si="7"/>
+        <v>93.657547712525016</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>535</v>
       </c>
@@ -11980,8 +14054,17 @@
       <c r="L251">
         <v>0.20365002500000001</v>
       </c>
+      <c r="M251">
+        <f t="shared" si="6"/>
+        <v>130.14254847625</v>
+      </c>
+      <c r="N251">
+        <f t="shared" si="7"/>
+        <v>58.571274238125</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/P3_PredictCatalogDemand/p3-mailinglist.xlsx
+++ b/P3_PredictCatalogDemand/p3-mailinglist.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="p1-mailinglist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -2491,7 +2491,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2597,16 +2597,16 @@
         <v>0.30503580699999999</v>
       </c>
       <c r="M2">
-        <f xml:space="preserve"> (305 + 66.81 * I2 - IF(B2="Store Mailing List", 242.76, 0) + IF(B2="Loyalty Club and Credit Card", 281.69, 0) - IF(B2="Loyalty Club Only", 150.03, 0) + IF(B2="Credit Card Only", 0)) * L2</f>
-        <v>108.40972580779999</v>
+        <f xml:space="preserve"> (303.46 + 66.98 * I2 - IF(B2="Store Mailing List", 245.42, 0) + IF(B2="Loyalty Club and Credit Card", 281.84, 0) - IF(B2="Loyalty Club Only", 149.36, 0) + IF(B2="Credit Card Only", 0)) * L2</f>
+        <v>108.29991291727998</v>
       </c>
       <c r="N2">
         <f>M2 * 0.5 - 6.5</f>
-        <v>47.704862903899993</v>
+        <v>47.649956458639991</v>
       </c>
       <c r="O2">
         <f>SUM(N:N)</f>
-        <v>22014.595373307369</v>
+        <v>21987.957028175759</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -2647,12 +2647,12 @@
         <v>0.472724537</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="0" xml:space="preserve"> (305 + 66.81 * I3 - IF(B3="Store Mailing List", 242.76, 0) + IF(B3="Loyalty Club and Credit Card", 281.69, 0) - IF(B3="Loyalty Club Only", 150.03, 0) + IF(B3="Credit Card Only", 0)) * L3</f>
-        <v>466.83911651435</v>
+        <f t="shared" ref="M3:M66" si="0" xml:space="preserve"> (303.46 + 66.98 * I3 - IF(B3="Store Mailing List", 245.42, 0) + IF(B3="Loyalty Club and Credit Card", 281.84, 0) - IF(B3="Loyalty Club Only", 149.36, 0) + IF(B3="Credit Card Only", 0)) * L3</f>
+        <v>466.66420843565993</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="1">M3 * 0.5 - 6.5</f>
-        <v>226.919558257175</v>
+        <v>226.83210421782996</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -2694,11 +2694,11 @@
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>360.43499508400009</v>
+        <v>360.62023727599995</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>173.71749754200005</v>
+        <v>173.81011863799998</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -2740,11 +2740,11 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>88.059720876490005</v>
+        <v>87.897997836659982</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>37.529860438245002</v>
+        <v>37.448998918329991</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -2786,11 +2786,11 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>163.69328903955</v>
+        <v>163.61962492709998</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>75.346644519774998</v>
+        <v>75.309812463549989</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -2832,11 +2832,11 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>206.51791865231002</v>
+        <v>206.42437124975999</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>96.758959326155008</v>
+        <v>96.712185624879993</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -2878,11 +2878,11 @@
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>189.35000611142002</v>
+        <v>189.19257107068</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>88.175003055710008</v>
+        <v>88.096285535340002</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>136.54660459314002</v>
+        <v>136.44601207565998</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>61.773302296570009</v>
+        <v>61.72300603782999</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -2970,11 +2970,11 @@
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>176.92918341804</v>
+        <v>176.79884145875997</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>81.964591709019999</v>
+        <v>81.899420729379983</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -3016,11 +3016,11 @@
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>111.68432000592</v>
+        <v>111.63406060703998</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>49.34216000296</v>
+        <v>49.317030303519992</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -3062,11 +3062,11 @@
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>37.319438995719999</v>
+        <v>36.583949183999991</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>12.159719497859999</v>
+        <v>11.791974591999995</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -3108,11 +3108,11 @@
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>119.26351964920001</v>
+        <v>119.32481401879998</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>53.131759824600003</v>
+        <v>53.162407009399992</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
@@ -3154,11 +3154,11 @@
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>89.628469016580013</v>
+        <v>89.588135037960001</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>38.314234508290006</v>
+        <v>38.29406751898</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
@@ -3200,11 +3200,11 @@
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>177.63167680974999</v>
+        <v>177.43988296420002</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>82.315838404874995</v>
+        <v>82.219941482100012</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
@@ -3246,11 +3246,11 @@
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>208.39647954384003</v>
+        <v>208.30208120064</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>97.698239771920015</v>
+        <v>97.651040600320002</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -3292,11 +3292,11 @@
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>84.740144093399991</v>
+        <v>84.654307143839986</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>35.870072046699995</v>
+        <v>35.827153571919993</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -3338,11 +3338,11 @@
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>113.93159792447999</v>
+        <v>113.92693833599999</v>
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>50.465798962239994</v>
+        <v>50.463469167999996</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -3384,11 +3384,11 @@
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>47.041375669080004</v>
+        <v>46.892899868880001</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>17.020687834540002</v>
+        <v>16.94644993444</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -3430,11 +3430,11 @@
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>529.76427052895997</v>
+        <v>530.47341218016004</v>
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>258.38213526447998</v>
+        <v>258.73670609008002</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -3476,11 +3476,11 @@
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>96.899156873249993</v>
+        <v>96.70168910999999</v>
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
-        <v>41.949578436624996</v>
+        <v>41.850844554999995</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -3522,11 +3522,11 @@
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>181.58285097084001</v>
+        <v>181.63185413303998</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>84.291425485420007</v>
+        <v>84.31592706651999</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -3568,11 +3568,11 @@
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>82.955917389799993</v>
+        <v>82.871887760479993</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>34.977958694899996</v>
+        <v>34.935943880239996</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -3614,11 +3614,11 @@
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>151.76809975602001</v>
+        <v>151.80905691011998</v>
       </c>
       <c r="N24">
         <f t="shared" si="1"/>
-        <v>69.384049878010003</v>
+        <v>69.404528455059989</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -3660,11 +3660,11 @@
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>70.105554684200001</v>
+        <v>70.034541741919995</v>
       </c>
       <c r="N25">
         <f t="shared" si="1"/>
-        <v>28.552777342100001</v>
+        <v>28.517270870959997</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -3706,11 +3706,11 @@
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>348.64156945178001</v>
+        <v>348.73565619667994</v>
       </c>
       <c r="N26">
         <f t="shared" si="1"/>
-        <v>167.82078472589001</v>
+        <v>167.86782809833997</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -3752,11 +3752,11 @@
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>69.282965183470012</v>
+        <v>69.155725945979981</v>
       </c>
       <c r="N27">
         <f t="shared" si="1"/>
-        <v>28.141482591735006</v>
+        <v>28.07786297298999</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -3798,11 +3798,11 @@
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
-        <v>185.20637803655998</v>
+        <v>184.93640164176</v>
       </c>
       <c r="N28">
         <f t="shared" si="1"/>
-        <v>86.103189018279991</v>
+        <v>85.96820082088</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -3844,11 +3844,11 @@
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>391.78410510069995</v>
+        <v>391.36108494183998</v>
       </c>
       <c r="N29">
         <f t="shared" si="1"/>
-        <v>189.39205255034997</v>
+        <v>189.18054247091999</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -3890,11 +3890,11 @@
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
-        <v>536.23110068800997</v>
+        <v>536.48214340265997</v>
       </c>
       <c r="N30">
         <f t="shared" si="1"/>
-        <v>261.61555034400499</v>
+        <v>261.74107170132999</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -3936,11 +3936,11 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>136.19337278639998</v>
+        <v>136.05541664063998</v>
       </c>
       <c r="N31">
         <f t="shared" si="1"/>
-        <v>61.596686393199988</v>
+        <v>61.527708320319988</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -3982,11 +3982,11 @@
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
-        <v>104.1267119132</v>
+        <v>104.02123747232</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>45.563355956599999</v>
+        <v>45.510618736159998</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -4028,11 +4028,11 @@
       </c>
       <c r="M33">
         <f t="shared" si="0"/>
-        <v>188.35978731731001</v>
+        <v>188.27446508975999</v>
       </c>
       <c r="N33">
         <f t="shared" si="1"/>
-        <v>87.679893658655004</v>
+        <v>87.637232544879993</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -4074,11 +4074,11 @@
       </c>
       <c r="M34">
         <f t="shared" si="0"/>
-        <v>289.30286127613999</v>
+        <v>289.08973475265998</v>
       </c>
       <c r="N34">
         <f t="shared" si="1"/>
-        <v>138.15143063807</v>
+        <v>138.04486737632999</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
@@ -4120,11 +4120,11 @@
       </c>
       <c r="M35">
         <f t="shared" si="0"/>
-        <v>60.172369527059999</v>
+        <v>59.327065367640003</v>
       </c>
       <c r="N35">
         <f t="shared" si="1"/>
-        <v>23.586184763529999</v>
+        <v>23.163532683820002</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -4166,11 +4166,11 @@
       </c>
       <c r="M36">
         <f t="shared" si="0"/>
-        <v>273.90362758464005</v>
+        <v>273.77955615743997</v>
       </c>
       <c r="N36">
         <f t="shared" si="1"/>
-        <v>130.45181379232002</v>
+        <v>130.38977807871998</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -4212,11 +4212,11 @@
       </c>
       <c r="M37">
         <f t="shared" si="0"/>
-        <v>252.46521233992996</v>
+        <v>252.52758470169996</v>
       </c>
       <c r="N37">
         <f t="shared" si="1"/>
-        <v>119.73260616996498</v>
+        <v>119.76379235084998</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -4258,11 +4258,11 @@
       </c>
       <c r="M38">
         <f t="shared" si="0"/>
-        <v>118.89427254826001</v>
+        <v>118.92635815155998</v>
       </c>
       <c r="N38">
         <f t="shared" si="1"/>
-        <v>52.947136274130003</v>
+        <v>52.963179075779991</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -4304,11 +4304,11 @@
       </c>
       <c r="M39">
         <f t="shared" si="0"/>
-        <v>143.24485003525001</v>
+        <v>143.09018459980001</v>
       </c>
       <c r="N39">
         <f t="shared" si="1"/>
-        <v>65.122425017625005</v>
+        <v>65.045092299900006</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -4350,11 +4350,11 @@
       </c>
       <c r="M40">
         <f t="shared" si="0"/>
-        <v>93.579990967959986</v>
+        <v>93.57616372199999</v>
       </c>
       <c r="N40">
         <f t="shared" si="1"/>
-        <v>40.289995483979993</v>
+        <v>40.288081860999995</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -4396,11 +4396,11 @@
       </c>
       <c r="M41">
         <f t="shared" si="0"/>
-        <v>337.93578453060002</v>
+        <v>338.17595935751996</v>
       </c>
       <c r="N41">
         <f t="shared" si="1"/>
-        <v>162.46789226530001</v>
+        <v>162.58797967875998</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
@@ -4442,11 +4442,11 @@
       </c>
       <c r="M42">
         <f t="shared" si="0"/>
-        <v>442.06910273337002</v>
+        <v>442.05727395353995</v>
       </c>
       <c r="N42">
         <f t="shared" si="1"/>
-        <v>214.53455136668501</v>
+        <v>214.52863697676997</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -4488,11 +4488,11 @@
       </c>
       <c r="M43">
         <f t="shared" si="0"/>
-        <v>259.05265077763005</v>
+        <v>259.04571910845999</v>
       </c>
       <c r="N43">
         <f t="shared" si="1"/>
-        <v>123.02632538881502</v>
+        <v>123.02285955423</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -4534,11 +4534,11 @@
       </c>
       <c r="M44">
         <f t="shared" si="0"/>
-        <v>138.91827278384002</v>
+        <v>138.66314722655997</v>
       </c>
       <c r="N44">
         <f t="shared" si="1"/>
-        <v>62.959136391920012</v>
+        <v>62.831573613279986</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -4580,11 +4580,11 @@
       </c>
       <c r="M45">
         <f t="shared" si="0"/>
-        <v>91.606209911019988</v>
+        <v>91.602463388999993</v>
       </c>
       <c r="N45">
         <f t="shared" si="1"/>
-        <v>39.303104955509994</v>
+        <v>39.301231694499997</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -4626,11 +4626,11 @@
       </c>
       <c r="M46">
         <f t="shared" si="0"/>
-        <v>301.81853037232003</v>
+        <v>301.98860169824002</v>
       </c>
       <c r="N46">
         <f t="shared" si="1"/>
-        <v>144.40926518616001</v>
+        <v>144.49430084912001</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -4672,11 +4672,11 @@
       </c>
       <c r="M47">
         <f t="shared" si="0"/>
-        <v>200.66144810782001</v>
+        <v>200.51362282657996</v>
       </c>
       <c r="N47">
         <f t="shared" si="1"/>
-        <v>93.830724053910004</v>
+        <v>93.756811413289981</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -4718,11 +4718,11 @@
       </c>
       <c r="M48">
         <f t="shared" si="0"/>
-        <v>129.35169981734998</v>
+        <v>129.21203520131999</v>
       </c>
       <c r="N48">
         <f t="shared" si="1"/>
-        <v>58.175849908674991</v>
+        <v>58.106017600659996</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
@@ -4764,11 +4764,11 @@
       </c>
       <c r="M49">
         <f t="shared" si="0"/>
-        <v>146.61027283392002</v>
+        <v>143.72088422399997</v>
       </c>
       <c r="N49">
         <f t="shared" si="1"/>
-        <v>66.805136416960011</v>
+        <v>65.360442111999987</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
@@ -4810,11 +4810,11 @@
       </c>
       <c r="M50">
         <f t="shared" si="0"/>
-        <v>117.58255432385</v>
+        <v>117.61428593809997</v>
       </c>
       <c r="N50">
         <f t="shared" si="1"/>
-        <v>52.291277161925002</v>
+        <v>52.307142969049984</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
@@ -4856,11 +4856,11 @@
       </c>
       <c r="M51">
         <f t="shared" si="0"/>
-        <v>55.069590811650009</v>
+        <v>54.968454656099986</v>
       </c>
       <c r="N51">
         <f t="shared" si="1"/>
-        <v>21.034795405825005</v>
+        <v>20.984227328049993</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
@@ -4902,11 +4902,11 @@
       </c>
       <c r="M52">
         <f t="shared" si="0"/>
-        <v>101.24257765199999</v>
+        <v>101.1400246752</v>
       </c>
       <c r="N52">
         <f t="shared" si="1"/>
-        <v>44.121288825999997</v>
+        <v>44.070012337599998</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
@@ -4948,11 +4948,11 @@
       </c>
       <c r="M53">
         <f t="shared" si="0"/>
-        <v>154.53107111377</v>
+        <v>154.46153011873997</v>
       </c>
       <c r="N53">
         <f t="shared" si="1"/>
-        <v>70.765535556884998</v>
+        <v>70.730765059369986</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
@@ -4994,11 +4994,11 @@
       </c>
       <c r="M54">
         <f t="shared" si="0"/>
-        <v>129.04493954304999</v>
+        <v>128.78196289399997</v>
       </c>
       <c r="N54">
         <f t="shared" si="1"/>
-        <v>58.022469771524996</v>
+        <v>57.890981446999987</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
@@ -5040,11 +5040,11 @@
       </c>
       <c r="M55">
         <f t="shared" si="0"/>
-        <v>144.62503036964003</v>
+        <v>144.35942426375999</v>
       </c>
       <c r="N55">
         <f t="shared" si="1"/>
-        <v>65.812515184820015</v>
+        <v>65.679712131879995</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
@@ -5086,11 +5086,11 @@
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>43.252232654540002</v>
+        <v>43.115716454439998</v>
       </c>
       <c r="N56">
         <f t="shared" si="1"/>
-        <v>15.126116327270001</v>
+        <v>15.057858227219999</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
@@ -5132,11 +5132,11 @@
       </c>
       <c r="M57">
         <f t="shared" si="0"/>
-        <v>43.208464815100001</v>
+        <v>43.072086758599994</v>
       </c>
       <c r="N57">
         <f t="shared" si="1"/>
-        <v>15.104232407550001</v>
+        <v>15.036043379299997</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
@@ -5178,11 +5178,11 @@
       </c>
       <c r="M58">
         <f t="shared" si="0"/>
-        <v>771.76208338854008</v>
+        <v>771.41249465184001</v>
       </c>
       <c r="N58">
         <f t="shared" si="1"/>
-        <v>379.38104169427004</v>
+        <v>379.20624732592</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
@@ -5224,11 +5224,11 @@
       </c>
       <c r="M59">
         <f t="shared" si="0"/>
-        <v>166.98592869408003</v>
+        <v>167.07174954911997</v>
       </c>
       <c r="N59">
         <f t="shared" si="1"/>
-        <v>76.992964347040015</v>
+        <v>77.035874774559986</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
@@ -5270,11 +5270,11 @@
       </c>
       <c r="M60">
         <f t="shared" si="0"/>
-        <v>150.73829470480001</v>
+        <v>150.62724731119997</v>
       </c>
       <c r="N60">
         <f t="shared" si="1"/>
-        <v>68.869147352400006</v>
+        <v>68.813623655599983</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
@@ -5316,11 +5316,11 @@
       </c>
       <c r="M61">
         <f t="shared" si="0"/>
-        <v>78.716275505010003</v>
+        <v>78.680852155619988</v>
       </c>
       <c r="N61">
         <f t="shared" si="1"/>
-        <v>32.858137752505002</v>
+        <v>32.840426077809994</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
@@ -5362,11 +5362,11 @@
       </c>
       <c r="M62">
         <f t="shared" si="0"/>
-        <v>72.750750682199993</v>
+        <v>72.677058306719999</v>
       </c>
       <c r="N62">
         <f t="shared" si="1"/>
-        <v>29.875375341099996</v>
+        <v>29.83852915336</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
@@ -5408,11 +5408,11 @@
       </c>
       <c r="M63">
         <f t="shared" si="0"/>
-        <v>127.5395374247</v>
+        <v>127.40182945064001</v>
       </c>
       <c r="N63">
         <f t="shared" si="1"/>
-        <v>57.26976871235</v>
+        <v>57.200914725320004</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
@@ -5454,11 +5454,11 @@
       </c>
       <c r="M64">
         <f t="shared" si="0"/>
-        <v>99.552265962680011</v>
+        <v>99.507466146159999</v>
       </c>
       <c r="N64">
         <f t="shared" si="1"/>
-        <v>43.276132981340005</v>
+        <v>43.253733073079999</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
@@ -5500,11 +5500,11 @@
       </c>
       <c r="M65">
         <f t="shared" si="0"/>
-        <v>115.00494828185001</v>
+        <v>115.03598428609997</v>
       </c>
       <c r="N65">
         <f t="shared" si="1"/>
-        <v>51.002474140925003</v>
+        <v>51.017992143049987</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
@@ -5546,11 +5546,11 @@
       </c>
       <c r="M66">
         <f t="shared" si="0"/>
-        <v>85.600271492339999</v>
+        <v>85.561750255079986</v>
       </c>
       <c r="N66">
         <f t="shared" si="1"/>
-        <v>36.30013574617</v>
+        <v>36.280875127539993</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
@@ -5591,12 +5591,12 @@
         <v>0.54112264600000004</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="2" xml:space="preserve"> (305 + 66.81 * I67 - IF(B67="Store Mailing List", 242.76, 0) + IF(B67="Loyalty Club and Credit Card", 281.69, 0) - IF(B67="Loyalty Club Only", 150.03, 0) + IF(B67="Credit Card Only", 0)) * L67</f>
-        <v>381.95683090556003</v>
+        <f t="shared" ref="M67:M130" si="2" xml:space="preserve"> (303.46 + 66.98 * I67 - IF(B67="Store Mailing List", 245.42, 0) + IF(B67="Loyalty Club and Credit Card", 281.84, 0) - IF(B67="Loyalty Club Only", 149.36, 0) + IF(B67="Credit Card Only", 0)) * L67</f>
+        <v>381.67544712963996</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N130" si="3">M67 * 0.5 - 6.5</f>
-        <v>184.47841545278001</v>
+        <v>184.33772356481998</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
@@ -5638,11 +5638,11 @@
       </c>
       <c r="M68">
         <f t="shared" si="2"/>
-        <v>163.88307139419996</v>
+        <v>163.70612229903998</v>
       </c>
       <c r="N68">
         <f t="shared" si="3"/>
-        <v>75.44153569709998</v>
+        <v>75.353061149519988</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
@@ -5684,11 +5684,11 @@
       </c>
       <c r="M69">
         <f t="shared" si="2"/>
-        <v>31.301505816950002</v>
+        <v>30.324015941380001</v>
       </c>
       <c r="N69">
         <f t="shared" si="3"/>
-        <v>9.1507529084750008</v>
+        <v>8.6620079706900004</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
@@ -5730,11 +5730,11 @@
       </c>
       <c r="M70">
         <f t="shared" si="2"/>
-        <v>71.191229907540006</v>
+        <v>71.060486112359982</v>
       </c>
       <c r="N70">
         <f t="shared" si="3"/>
-        <v>29.095614953770003</v>
+        <v>29.030243056179991</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
@@ -5776,11 +5776,11 @@
       </c>
       <c r="M71">
         <f t="shared" si="2"/>
-        <v>94.453968489999994</v>
+        <v>94.450105500000006</v>
       </c>
       <c r="N71">
         <f t="shared" si="3"/>
-        <v>40.726984244999997</v>
+        <v>40.725052750000003</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
@@ -5822,11 +5822,11 @@
       </c>
       <c r="M72">
         <f t="shared" si="2"/>
-        <v>39.340536746560005</v>
+        <v>38.565215231999993</v>
       </c>
       <c r="N72">
         <f t="shared" si="3"/>
-        <v>13.170268373280003</v>
+        <v>12.782607615999996</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
@@ -5868,11 +5868,11 @@
       </c>
       <c r="M73">
         <f t="shared" si="2"/>
-        <v>245.76741435641006</v>
+        <v>245.65608792335999</v>
       </c>
       <c r="N73">
         <f t="shared" si="3"/>
-        <v>116.38370717820503</v>
+        <v>116.32804396168</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
@@ -5914,11 +5914,11 @@
       </c>
       <c r="M74">
         <f t="shared" si="2"/>
-        <v>165.18930319546001</v>
+        <v>165.11447661215999</v>
       </c>
       <c r="N74">
         <f t="shared" si="3"/>
-        <v>76.094651597730007</v>
+        <v>76.057238306079995</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
@@ -5960,11 +5960,11 @@
       </c>
       <c r="M75">
         <f t="shared" si="2"/>
-        <v>241.34918485073001</v>
+        <v>241.41431695537995</v>
       </c>
       <c r="N75">
         <f t="shared" si="3"/>
-        <v>114.17459242536501</v>
+        <v>114.20715847768997</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
@@ -6006,11 +6006,11 @@
       </c>
       <c r="M76">
         <f t="shared" si="2"/>
-        <v>163.14491989559002</v>
+        <v>162.84530172605997</v>
       </c>
       <c r="N76">
         <f t="shared" si="3"/>
-        <v>75.072459947795011</v>
+        <v>74.922650863029986</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
@@ -6052,11 +6052,11 @@
       </c>
       <c r="M77">
         <f t="shared" si="2"/>
-        <v>191.17011729848002</v>
+        <v>190.81903042031996</v>
       </c>
       <c r="N77">
         <f t="shared" si="3"/>
-        <v>89.085058649240011</v>
+        <v>88.909515210159981</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
@@ -6098,11 +6098,11 @@
       </c>
       <c r="M78">
         <f t="shared" si="2"/>
-        <v>68.440314834399999</v>
+        <v>68.370988685439997</v>
       </c>
       <c r="N78">
         <f t="shared" si="3"/>
-        <v>27.720157417199999</v>
+        <v>27.685494342719998</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
@@ -6144,11 +6144,11 @@
       </c>
       <c r="M79">
         <f t="shared" si="2"/>
-        <v>208.87566321681999</v>
+        <v>208.75316081860001</v>
       </c>
       <c r="N79">
         <f t="shared" si="3"/>
-        <v>97.937831608409994</v>
+        <v>97.876580409300004</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
@@ -6190,11 +6190,11 @@
       </c>
       <c r="M80">
         <f t="shared" si="2"/>
-        <v>45.292709786220001</v>
+        <v>45.149753266920001</v>
       </c>
       <c r="N80">
         <f t="shared" si="3"/>
-        <v>16.146354893110001</v>
+        <v>16.074876633460001</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
@@ -6236,11 +6236,11 @@
       </c>
       <c r="M81">
         <f t="shared" si="2"/>
-        <v>56.665325603880007</v>
+        <v>55.548567935999998</v>
       </c>
       <c r="N81">
         <f t="shared" si="3"/>
-        <v>21.832662801940003</v>
+        <v>21.274283967999999</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
@@ -6282,11 +6282,11 @@
       </c>
       <c r="M82">
         <f t="shared" si="2"/>
-        <v>95.817106290199987</v>
+        <v>95.720049007519989</v>
       </c>
       <c r="N82">
         <f t="shared" si="3"/>
-        <v>41.408553145099994</v>
+        <v>41.360024503759995</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
@@ -6328,11 +6328,11 @@
       </c>
       <c r="M83">
         <f t="shared" si="2"/>
-        <v>88.518793895240009</v>
+        <v>88.478959284880005</v>
       </c>
       <c r="N83">
         <f t="shared" si="3"/>
-        <v>37.759396947620004</v>
+        <v>37.739479642440003</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
@@ -6374,11 +6374,11 @@
       </c>
       <c r="M84">
         <f t="shared" si="2"/>
-        <v>256.21015661995</v>
+        <v>256.09485871189997</v>
       </c>
       <c r="N84">
         <f t="shared" si="3"/>
-        <v>121.605078309975</v>
+        <v>121.54742935594999</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
@@ -6420,11 +6420,11 @@
       </c>
       <c r="M85">
         <f t="shared" si="2"/>
-        <v>80.613769998170014</v>
+        <v>80.577492751539992</v>
       </c>
       <c r="N85">
         <f t="shared" si="3"/>
-        <v>33.806884999085007</v>
+        <v>33.788746375769996</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
@@ -6466,11 +6466,11 @@
       </c>
       <c r="M86">
         <f t="shared" si="2"/>
-        <v>138.7555447588</v>
+        <v>138.65332493719998</v>
       </c>
       <c r="N86">
         <f t="shared" si="3"/>
-        <v>62.8777723794</v>
+        <v>62.826662468599991</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
@@ -6512,11 +6512,11 @@
       </c>
       <c r="M87">
         <f t="shared" si="2"/>
-        <v>232.36175826360002</v>
+        <v>232.22548162800001</v>
       </c>
       <c r="N87">
         <f t="shared" si="3"/>
-        <v>109.68087913180001</v>
+        <v>109.61274081400001</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
@@ -6558,11 +6558,11 @@
       </c>
       <c r="M88">
         <f t="shared" si="2"/>
-        <v>298.78455300779996</v>
+        <v>298.46194704336</v>
       </c>
       <c r="N88">
         <f t="shared" si="3"/>
-        <v>142.89227650389998</v>
+        <v>142.73097352168</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
@@ -6604,11 +6604,11 @@
       </c>
       <c r="M89">
         <f t="shared" si="2"/>
-        <v>107.22565574292001</v>
+        <v>107.17740280104</v>
       </c>
       <c r="N89">
         <f t="shared" si="3"/>
-        <v>47.112827871460006</v>
+        <v>47.088701400520002</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
@@ -6650,11 +6650,11 @@
       </c>
       <c r="M90">
         <f t="shared" si="2"/>
-        <v>37.229805104100002</v>
+        <v>36.067185076440005</v>
       </c>
       <c r="N90">
         <f t="shared" si="3"/>
-        <v>12.114902552050001</v>
+        <v>11.533592538220002</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
@@ -6696,11 +6696,11 @@
       </c>
       <c r="M91">
         <f t="shared" si="2"/>
-        <v>439.84094020365995</v>
+        <v>439.51691378353991</v>
       </c>
       <c r="N91">
         <f t="shared" si="3"/>
-        <v>213.42047010182998</v>
+        <v>213.25845689176995</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
@@ -6742,11 +6742,11 @@
       </c>
       <c r="M92">
         <f t="shared" si="2"/>
-        <v>276.46637436355002</v>
+        <v>276.66286217765997</v>
       </c>
       <c r="N92">
         <f t="shared" si="3"/>
-        <v>131.73318718177501</v>
+        <v>131.83143108882999</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
@@ -6788,11 +6788,11 @@
       </c>
       <c r="M93">
         <f t="shared" si="2"/>
-        <v>245.13313179323998</v>
+        <v>244.95254466755998</v>
       </c>
       <c r="N93">
         <f t="shared" si="3"/>
-        <v>116.06656589661999</v>
+        <v>115.97627233377999</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
@@ -6834,11 +6834,11 @@
       </c>
       <c r="M94">
         <f t="shared" si="2"/>
-        <v>98.932930058160011</v>
+        <v>98.751238201439989</v>
       </c>
       <c r="N94">
         <f t="shared" si="3"/>
-        <v>42.966465029080005</v>
+        <v>42.875619100719994</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
@@ -6880,11 +6880,11 @@
       </c>
       <c r="M95">
         <f t="shared" si="2"/>
-        <v>136.94811728560001</v>
+        <v>136.80939662655999</v>
       </c>
       <c r="N95">
         <f t="shared" si="3"/>
-        <v>61.974058642800003</v>
+        <v>61.904698313279994</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
@@ -6926,11 +6926,11 @@
       </c>
       <c r="M96">
         <f t="shared" si="2"/>
-        <v>441.72120805819998</v>
+        <v>441.70314249</v>
       </c>
       <c r="N96">
         <f t="shared" si="3"/>
-        <v>214.36060402909999</v>
+        <v>214.351571245</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
@@ -6972,11 +6972,11 @@
       </c>
       <c r="M97">
         <f t="shared" si="2"/>
-        <v>26.1856410629</v>
+        <v>25.367910466360001</v>
       </c>
       <c r="N97">
         <f t="shared" si="3"/>
-        <v>6.5928205314500001</v>
+        <v>6.1839552331800007</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
@@ -7018,11 +7018,11 @@
       </c>
       <c r="M98">
         <f t="shared" si="2"/>
-        <v>554.27271107912009</v>
+        <v>554.42229081871994</v>
       </c>
       <c r="N98">
         <f t="shared" si="3"/>
-        <v>270.63635553956004</v>
+        <v>270.71114540935997</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.15">
@@ -7064,11 +7064,11 @@
       </c>
       <c r="M99">
         <f t="shared" si="2"/>
-        <v>97.01776719854</v>
+        <v>96.974107939479993</v>
       </c>
       <c r="N99">
         <f t="shared" si="3"/>
-        <v>42.00888359927</v>
+        <v>41.987053969739996</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.15">
@@ -7110,11 +7110,11 @@
       </c>
       <c r="M100">
         <f t="shared" si="2"/>
-        <v>92.101367709260003</v>
+        <v>91.810669912359998</v>
       </c>
       <c r="N100">
         <f t="shared" si="3"/>
-        <v>39.550683854630002</v>
+        <v>39.405334956179999</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.15">
@@ -7156,11 +7156,11 @@
       </c>
       <c r="M101">
         <f t="shared" si="2"/>
-        <v>170.18562236970001</v>
+        <v>166.83161183999999</v>
       </c>
       <c r="N101">
         <f t="shared" si="3"/>
-        <v>78.592811184850007</v>
+        <v>76.915805919999997</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.15">
@@ -7202,11 +7202,11 @@
       </c>
       <c r="M102">
         <f t="shared" si="2"/>
-        <v>95.216859576030018</v>
+        <v>95.174010748859999</v>
       </c>
       <c r="N102">
         <f t="shared" si="3"/>
-        <v>41.108429788015009</v>
+        <v>41.087005374429999</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.15">
@@ -7248,11 +7248,11 @@
       </c>
       <c r="M103">
         <f t="shared" si="2"/>
-        <v>147.66324212219999</v>
+        <v>147.51366765071998</v>
       </c>
       <c r="N103">
         <f t="shared" si="3"/>
-        <v>67.331621061099995</v>
+        <v>67.25683382535999</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.15">
@@ -7294,11 +7294,11 @@
       </c>
       <c r="M104">
         <f t="shared" si="2"/>
-        <v>113.63714793704</v>
+        <v>113.46636653898</v>
       </c>
       <c r="N104">
         <f t="shared" si="3"/>
-        <v>50.318573968519999</v>
+        <v>50.233183269489999</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.15">
@@ -7340,11 +7340,11 @@
       </c>
       <c r="M105">
         <f t="shared" si="2"/>
-        <v>688.23804976935003</v>
+        <v>687.98019135365985</v>
       </c>
       <c r="N105">
         <f t="shared" si="3"/>
-        <v>337.61902488467501</v>
+        <v>337.49009567682992</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.15">
@@ -7386,11 +7386,11 @@
       </c>
       <c r="M106">
         <f t="shared" si="2"/>
-        <v>124.11976295865</v>
+        <v>123.98574740988001</v>
       </c>
       <c r="N106">
         <f t="shared" si="3"/>
-        <v>55.559881479325</v>
+        <v>55.492873704940003</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.15">
@@ -7432,11 +7432,11 @@
       </c>
       <c r="M107">
         <f t="shared" si="2"/>
-        <v>135.67100799880001</v>
+        <v>135.53358097888</v>
       </c>
       <c r="N107">
         <f t="shared" si="3"/>
-        <v>61.335503999400004</v>
+        <v>61.266790489439998</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.15">
@@ -7478,11 +7478,11 @@
       </c>
       <c r="M108">
         <f t="shared" si="2"/>
-        <v>221.88669579084998</v>
+        <v>221.64711857451999</v>
       </c>
       <c r="N108">
         <f t="shared" si="3"/>
-        <v>104.44334789542499</v>
+        <v>104.32355928726</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.15">
@@ -7524,11 +7524,11 @@
       </c>
       <c r="M109">
         <f t="shared" si="2"/>
-        <v>775.94610011116015</v>
+        <v>775.79891203495993</v>
       </c>
       <c r="N109">
         <f t="shared" si="3"/>
-        <v>381.47305005558007</v>
+        <v>381.39945601747996</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.15">
@@ -7570,11 +7570,11 @@
       </c>
       <c r="M110">
         <f t="shared" si="2"/>
-        <v>115.04438330869</v>
+        <v>115.07542995513998</v>
       </c>
       <c r="N110">
         <f t="shared" si="3"/>
-        <v>51.022191654345001</v>
+        <v>51.037714977569991</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.15">
@@ -7616,11 +7616,11 @@
       </c>
       <c r="M111">
         <f t="shared" si="2"/>
-        <v>42.89688365352</v>
+        <v>42.761489034719993</v>
       </c>
       <c r="N111">
         <f t="shared" si="3"/>
-        <v>14.94844182676</v>
+        <v>14.880744517359997</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.15">
@@ -7662,11 +7662,11 @@
       </c>
       <c r="M112">
         <f t="shared" si="2"/>
-        <v>121.82721453904999</v>
+        <v>121.69567431836001</v>
       </c>
       <c r="N112">
         <f t="shared" si="3"/>
-        <v>54.413607269524995</v>
+        <v>54.347837159180003</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.15">
@@ -7708,11 +7708,11 @@
       </c>
       <c r="M113">
         <f t="shared" si="2"/>
-        <v>355.80523385524998</v>
+        <v>355.67192623889997</v>
       </c>
       <c r="N113">
         <f t="shared" si="3"/>
-        <v>171.40261692762499</v>
+        <v>171.33596311944999</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.15">
@@ -7754,11 +7754,11 @@
       </c>
       <c r="M114">
         <f t="shared" si="2"/>
-        <v>247.54158106929998</v>
+        <v>247.27430356216001</v>
       </c>
       <c r="N114">
         <f t="shared" si="3"/>
-        <v>117.27079053464999</v>
+        <v>117.13715178108001</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.15">
@@ -7800,11 +7800,11 @@
       </c>
       <c r="M115">
         <f t="shared" si="2"/>
-        <v>108.66086490730002</v>
+        <v>108.61196610260001</v>
       </c>
       <c r="N115">
         <f t="shared" si="3"/>
-        <v>47.830432453650012</v>
+        <v>47.805983051300004</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.15">
@@ -7846,11 +7846,11 @@
       </c>
       <c r="M116">
         <f t="shared" si="2"/>
-        <v>417.07884472568003</v>
+        <v>416.45203113965999</v>
       </c>
       <c r="N116">
         <f t="shared" si="3"/>
-        <v>202.03942236284001</v>
+        <v>201.72601556983</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.15">
@@ -7892,11 +7892,11 @@
       </c>
       <c r="M117">
         <f t="shared" si="2"/>
-        <v>124.66291903209002</v>
+        <v>124.60681909457999</v>
       </c>
       <c r="N117">
         <f t="shared" si="3"/>
-        <v>55.831459516045008</v>
+        <v>55.803409547289995</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.15">
@@ -7938,11 +7938,11 @@
       </c>
       <c r="M118">
         <f t="shared" si="2"/>
-        <v>260.29233227660001</v>
+        <v>260.01128742992</v>
       </c>
       <c r="N118">
         <f t="shared" si="3"/>
-        <v>123.6461661383</v>
+        <v>123.50564371496</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.15">
@@ -7984,11 +7984,11 @@
       </c>
       <c r="M119">
         <f t="shared" si="2"/>
-        <v>25.382917800400005</v>
+        <v>24.590254811360005</v>
       </c>
       <c r="N119">
         <f t="shared" si="3"/>
-        <v>6.1914589002000024</v>
+        <v>5.7951274056800024</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.15">
@@ -8030,11 +8030,11 @@
       </c>
       <c r="M120">
         <f t="shared" si="2"/>
-        <v>236.53310154792001</v>
+        <v>236.35884997847998</v>
       </c>
       <c r="N120">
         <f t="shared" si="3"/>
-        <v>111.76655077396001</v>
+        <v>111.67942498923999</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.15">
@@ -8076,11 +8076,11 @@
       </c>
       <c r="M121">
         <f t="shared" si="2"/>
-        <v>102.13695877588</v>
+        <v>102.13278156600001</v>
       </c>
       <c r="N121">
         <f t="shared" si="3"/>
-        <v>44.568479387940002</v>
+        <v>44.566390783000003</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.15">
@@ -8122,11 +8122,11 @@
       </c>
       <c r="M122">
         <f t="shared" si="2"/>
-        <v>72.945553596400003</v>
+        <v>72.871663896640001</v>
       </c>
       <c r="N122">
         <f t="shared" si="3"/>
-        <v>29.972776798200002</v>
+        <v>29.935831948320001</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.15">
@@ -8168,11 +8168,11 @@
       </c>
       <c r="M123">
         <f t="shared" si="2"/>
-        <v>68.095348360460008</v>
+        <v>67.97029019963999</v>
       </c>
       <c r="N123">
         <f t="shared" si="3"/>
-        <v>27.547674180230004</v>
+        <v>27.485145099819995</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.15">
@@ -8214,11 +8214,11 @@
       </c>
       <c r="M124">
         <f t="shared" si="2"/>
-        <v>197.40069431119997</v>
+        <v>197.18755530944</v>
       </c>
       <c r="N124">
         <f t="shared" si="3"/>
-        <v>92.200347155599985</v>
+        <v>92.09377765472</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.15">
@@ -8260,11 +8260,11 @@
       </c>
       <c r="M125">
         <f t="shared" si="2"/>
-        <v>123.29787500219999</v>
+        <v>123.16474686863999</v>
       </c>
       <c r="N125">
         <f t="shared" si="3"/>
-        <v>55.148937501099994</v>
+        <v>55.082373434319997</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.15">
@@ -8306,11 +8306,11 @@
       </c>
       <c r="M126">
         <f t="shared" si="2"/>
-        <v>128.85778999408004</v>
+        <v>128.92401524912</v>
       </c>
       <c r="N126">
         <f t="shared" si="3"/>
-        <v>57.928894997040018</v>
+        <v>57.962007624560002</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.15">
@@ -8352,11 +8352,11 @@
       </c>
       <c r="M127">
         <f t="shared" si="2"/>
-        <v>321.38862516080002</v>
+        <v>321.44146883567998</v>
       </c>
       <c r="N127">
         <f t="shared" si="3"/>
-        <v>154.19431258040001</v>
+        <v>154.22073441783999</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.15">
@@ -8398,11 +8398,11 @@
       </c>
       <c r="M128">
         <f t="shared" si="2"/>
-        <v>115.90435937471999</v>
+        <v>115.899619104</v>
       </c>
       <c r="N128">
         <f t="shared" si="3"/>
-        <v>51.452179687359994</v>
+        <v>51.449809551999998</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.15">
@@ -8444,11 +8444,11 @@
       </c>
       <c r="M129">
         <f t="shared" si="2"/>
-        <v>149.81799308145</v>
+        <v>149.65623044124001</v>
       </c>
       <c r="N129">
         <f t="shared" si="3"/>
-        <v>68.408996540724999</v>
+        <v>68.328115220620006</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.15">
@@ -8490,11 +8490,11 @@
       </c>
       <c r="M130">
         <f t="shared" si="2"/>
-        <v>72.686956958150006</v>
+        <v>72.553466237099983</v>
       </c>
       <c r="N130">
         <f t="shared" si="3"/>
-        <v>29.843478479075003</v>
+        <v>29.776733118549991</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.15">
@@ -8535,12 +8535,12 @@
         <v>0.30242839199999999</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M194" si="4" xml:space="preserve"> (305 + 66.81 * I131 - IF(B131="Store Mailing List", 242.76, 0) + IF(B131="Loyalty Club and Credit Card", 281.69, 0) - IF(B131="Loyalty Club Only", 150.03, 0) + IF(B131="Credit Card Only", 0)) * L131</f>
-        <v>233.67734564664002</v>
+        <f t="shared" ref="M131:M194" si="4" xml:space="preserve"> (303.46 + 66.98 * I131 - IF(B131="Store Mailing List", 245.42, 0) + IF(B131="Loyalty Club and Credit Card", 281.84, 0) - IF(B131="Loyalty Club Only", 149.36, 0) + IF(B131="Credit Card Only", 0)) * L131</f>
+        <v>233.57149570943997</v>
       </c>
       <c r="N131">
         <f t="shared" ref="N131:N194" si="5">M131 * 0.5 - 6.5</f>
-        <v>110.33867282332001</v>
+        <v>110.28574785471999</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.15">
@@ -8582,11 +8582,11 @@
       </c>
       <c r="M132">
         <f t="shared" si="4"/>
-        <v>158.56670502274002</v>
+        <v>158.49534793987999</v>
       </c>
       <c r="N132">
         <f t="shared" si="5"/>
-        <v>72.783352511370012</v>
+        <v>72.747673969939996</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.15">
@@ -8628,11 +8628,11 @@
       </c>
       <c r="M133">
         <f t="shared" si="4"/>
-        <v>276.32341596185</v>
+        <v>276.02506190972002</v>
       </c>
       <c r="N133">
         <f t="shared" si="5"/>
-        <v>131.661707980925</v>
+        <v>131.51253095486001</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.15">
@@ -8674,11 +8674,11 @@
       </c>
       <c r="M134">
         <f t="shared" si="4"/>
-        <v>105.94728619387001</v>
+        <v>105.89960853494</v>
       </c>
       <c r="N134">
         <f t="shared" si="5"/>
-        <v>46.473643096935007</v>
+        <v>46.44980426747</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.15">
@@ -8720,11 +8720,11 @@
       </c>
       <c r="M135">
         <f t="shared" si="4"/>
-        <v>172.86448072326002</v>
+        <v>172.5122056008</v>
       </c>
       <c r="N135">
         <f t="shared" si="5"/>
-        <v>79.932240361630008</v>
+        <v>79.756102800400001</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.15">
@@ -8766,11 +8766,11 @@
       </c>
       <c r="M136">
         <f t="shared" si="4"/>
-        <v>376.92415498456006</v>
+        <v>376.64647873064001</v>
       </c>
       <c r="N136">
         <f t="shared" si="5"/>
-        <v>181.96207749228003</v>
+        <v>181.82323936532001</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.15">
@@ -8812,11 +8812,11 @@
       </c>
       <c r="M137">
         <f t="shared" si="4"/>
-        <v>317.85378001564004</v>
+        <v>317.93955816183995</v>
       </c>
       <c r="N137">
         <f t="shared" si="5"/>
-        <v>152.42689000782002</v>
+        <v>152.46977908091998</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.15">
@@ -8858,11 +8858,11 @@
       </c>
       <c r="M138">
         <f t="shared" si="4"/>
-        <v>336.06736266729996</v>
+        <v>335.70450141975999</v>
       </c>
       <c r="N138">
         <f t="shared" si="5"/>
-        <v>161.53368133364998</v>
+        <v>161.35225070988</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.15">
@@ -8904,11 +8904,11 @@
       </c>
       <c r="M139">
         <f t="shared" si="4"/>
-        <v>141.24678092063002</v>
+        <v>140.95893852040001</v>
       </c>
       <c r="N139">
         <f t="shared" si="5"/>
-        <v>64.123390460315008</v>
+        <v>63.979469260200005</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.15">
@@ -8950,11 +8950,11 @@
       </c>
       <c r="M140">
         <f t="shared" si="4"/>
-        <v>211.22929728385</v>
+        <v>211.00122715612002</v>
       </c>
       <c r="N140">
         <f t="shared" si="5"/>
-        <v>99.114648641925001</v>
+        <v>99.000613578060012</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.15">
@@ -8996,11 +8996,11 @@
       </c>
       <c r="M141">
         <f t="shared" si="4"/>
-        <v>90.330058329050004</v>
+        <v>90.289408626099998</v>
       </c>
       <c r="N141">
         <f t="shared" si="5"/>
-        <v>38.665029164525002</v>
+        <v>38.644704313049999</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.15">
@@ -9042,11 +9042,11 @@
       </c>
       <c r="M142">
         <f t="shared" si="4"/>
-        <v>362.49683148392</v>
+        <v>362.482006044</v>
       </c>
       <c r="N142">
         <f t="shared" si="5"/>
-        <v>174.74841574196</v>
+        <v>174.741003022</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.15">
@@ -9088,11 +9088,11 @@
       </c>
       <c r="M143">
         <f t="shared" si="4"/>
-        <v>131.7666238148</v>
+        <v>131.70732711759999</v>
       </c>
       <c r="N143">
         <f t="shared" si="5"/>
-        <v>59.3833119074</v>
+        <v>59.353663558799994</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.15">
@@ -9134,11 +9134,11 @@
       </c>
       <c r="M144">
         <f t="shared" si="4"/>
-        <v>152.39010287024999</v>
+        <v>152.22556305180001</v>
       </c>
       <c r="N144">
         <f t="shared" si="5"/>
-        <v>69.695051435124995</v>
+        <v>69.612781525900004</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.15">
@@ -9180,11 +9180,11 @@
       </c>
       <c r="M145">
         <f t="shared" si="4"/>
-        <v>275.56905510345001</v>
+        <v>275.44504543889997</v>
       </c>
       <c r="N145">
         <f t="shared" si="5"/>
-        <v>131.28452755172501</v>
+        <v>131.22252271944998</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.15">
@@ -9226,11 +9226,11 @@
       </c>
       <c r="M146">
         <f t="shared" si="4"/>
-        <v>194.87424689965002</v>
+        <v>194.78597378639998</v>
       </c>
       <c r="N146">
         <f t="shared" si="5"/>
-        <v>90.937123449825009</v>
+        <v>90.892986893199989</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.15">
@@ -9272,11 +9272,11 @@
       </c>
       <c r="M147">
         <f t="shared" si="4"/>
-        <v>319.19835766895005</v>
+        <v>319.05471424989997</v>
       </c>
       <c r="N147">
         <f t="shared" si="5"/>
-        <v>153.09917883447503</v>
+        <v>153.02735712494999</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.15">
@@ -9318,11 +9318,11 @@
       </c>
       <c r="M148">
         <f t="shared" si="4"/>
-        <v>237.14967348332002</v>
+        <v>237.20826209079999</v>
       </c>
       <c r="N148">
         <f t="shared" si="5"/>
-        <v>112.07483674166001</v>
+        <v>112.1041310454</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.15">
@@ -9364,11 +9364,11 @@
       </c>
       <c r="M149">
         <f t="shared" si="4"/>
-        <v>55.460822174000008</v>
+        <v>55.358967515999993</v>
       </c>
       <c r="N149">
         <f t="shared" si="5"/>
-        <v>21.230411087000004</v>
+        <v>21.179483757999996</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.15">
@@ -9410,11 +9410,11 @@
       </c>
       <c r="M150">
         <f t="shared" si="4"/>
-        <v>119.33066343577001</v>
+        <v>119.27696308274</v>
       </c>
       <c r="N150">
         <f t="shared" si="5"/>
-        <v>53.165331717885003</v>
+        <v>53.138481541369998</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.15">
@@ -9456,11 +9456,11 @@
       </c>
       <c r="M151">
         <f t="shared" si="4"/>
-        <v>231.03626471351998</v>
+        <v>231.02681576399999</v>
       </c>
       <c r="N151">
         <f t="shared" si="5"/>
-        <v>109.01813235675999</v>
+        <v>109.013407882</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.15">
@@ -9502,11 +9502,11 @@
       </c>
       <c r="M152">
         <f t="shared" si="4"/>
-        <v>82.33600332412</v>
+        <v>82.110744092920001</v>
       </c>
       <c r="N152">
         <f t="shared" si="5"/>
-        <v>34.66800166206</v>
+        <v>34.55537204646</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.15">
@@ -9548,11 +9548,11 @@
       </c>
       <c r="M153">
         <f t="shared" si="4"/>
-        <v>235.94787904321004</v>
+        <v>235.84169942401999</v>
       </c>
       <c r="N153">
         <f t="shared" si="5"/>
-        <v>111.47393952160502</v>
+        <v>111.42084971201</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.15">
@@ -9594,11 +9594,11 @@
       </c>
       <c r="M154">
         <f t="shared" si="4"/>
-        <v>693.31998770120003</v>
+        <v>692.80922580279992</v>
       </c>
       <c r="N154">
         <f t="shared" si="5"/>
-        <v>340.15999385060002</v>
+        <v>339.90461290139996</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.15">
@@ -9640,11 +9640,11 @@
       </c>
       <c r="M155">
         <f t="shared" si="4"/>
-        <v>127.51214045075001</v>
+        <v>127.54655172949998</v>
       </c>
       <c r="N155">
         <f t="shared" si="5"/>
-        <v>57.256070225375005</v>
+        <v>57.273275864749991</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.15">
@@ -9686,11 +9686,11 @@
       </c>
       <c r="M156">
         <f t="shared" si="4"/>
-        <v>49.008235147560001</v>
+        <v>48.853551386159999</v>
       </c>
       <c r="N156">
         <f t="shared" si="5"/>
-        <v>18.00411757378</v>
+        <v>17.92677569308</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.15">
@@ -9732,11 +9732,11 @@
       </c>
       <c r="M157">
         <f t="shared" si="4"/>
-        <v>80.018674285000003</v>
+        <v>79.937619915999989</v>
       </c>
       <c r="N157">
         <f t="shared" si="5"/>
-        <v>33.509337142500002</v>
+        <v>33.468809957999994</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.15">
@@ -9778,11 +9778,11 @@
       </c>
       <c r="M158">
         <f t="shared" si="4"/>
-        <v>170.25647614614002</v>
+        <v>170.17935426143998</v>
       </c>
       <c r="N158">
         <f t="shared" si="5"/>
-        <v>78.628238073070008</v>
+        <v>78.589677130719991</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.15">
@@ -9824,11 +9824,11 @@
       </c>
       <c r="M159">
         <f t="shared" si="4"/>
-        <v>70.858898551999999</v>
+        <v>70.787122515199997</v>
       </c>
       <c r="N159">
         <f t="shared" si="5"/>
-        <v>28.929449276</v>
+        <v>28.893561257599998</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.15">
@@ -9870,11 +9870,11 @@
       </c>
       <c r="M160">
         <f t="shared" si="4"/>
-        <v>104.46517844412</v>
+        <v>104.13545698631999</v>
       </c>
       <c r="N160">
         <f t="shared" si="5"/>
-        <v>45.73258922206</v>
+        <v>45.567728493159997</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.15">
@@ -9916,11 +9916,11 @@
       </c>
       <c r="M161">
         <f t="shared" si="4"/>
-        <v>74.087881309820006</v>
+        <v>72.627760703999996</v>
       </c>
       <c r="N161">
         <f t="shared" si="5"/>
-        <v>30.543940654910003</v>
+        <v>29.813880351999998</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.15">
@@ -9962,11 +9962,11 @@
       </c>
       <c r="M162">
         <f t="shared" si="4"/>
-        <v>320.96795594599996</v>
+        <v>320.64283364959994</v>
       </c>
       <c r="N162">
         <f t="shared" si="5"/>
-        <v>153.98397797299998</v>
+        <v>153.82141682479997</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.15">
@@ -10008,11 +10008,11 @@
       </c>
       <c r="M163">
         <f t="shared" si="4"/>
-        <v>177.51508987493</v>
+        <v>176.86100398932001</v>
       </c>
       <c r="N163">
         <f t="shared" si="5"/>
-        <v>82.257544937464999</v>
+        <v>81.930501994660005</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.15">
@@ -10054,11 +10054,11 @@
       </c>
       <c r="M164">
         <f t="shared" si="4"/>
-        <v>69.328826463320013</v>
+        <v>69.201503000879981</v>
       </c>
       <c r="N164">
         <f t="shared" si="5"/>
-        <v>28.164413231660006</v>
+        <v>28.100751500439991</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.15">
@@ -10100,11 +10100,11 @@
       </c>
       <c r="M165">
         <f t="shared" si="4"/>
-        <v>246.24167175951999</v>
+        <v>246.27069062687997</v>
       </c>
       <c r="N165">
         <f t="shared" si="5"/>
-        <v>116.62083587975999</v>
+        <v>116.63534531343998</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.15">
@@ -10146,11 +10146,11 @@
       </c>
       <c r="M166">
         <f t="shared" si="4"/>
-        <v>132.26490794919999</v>
+        <v>132.16746971479998</v>
       </c>
       <c r="N166">
         <f t="shared" si="5"/>
-        <v>59.632453974599997</v>
+        <v>59.583734857399989</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.15">
@@ -10192,11 +10192,11 @@
       </c>
       <c r="M167">
         <f t="shared" si="4"/>
-        <v>182.39057607744996</v>
+        <v>182.19364391643998</v>
       </c>
       <c r="N167">
         <f t="shared" si="5"/>
-        <v>84.695288038724982</v>
+        <v>84.596821958219991</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.15">
@@ -10238,11 +10238,11 @@
       </c>
       <c r="M168">
         <f t="shared" si="4"/>
-        <v>118.05712364534001</v>
+        <v>118.08898333003998</v>
       </c>
       <c r="N168">
         <f t="shared" si="5"/>
-        <v>52.528561822670007</v>
+        <v>52.54449166501999</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.15">
@@ -10284,11 +10284,11 @@
       </c>
       <c r="M169">
         <f t="shared" si="4"/>
-        <v>135.28622169958001</v>
+        <v>132.62000697599998</v>
       </c>
       <c r="N169">
         <f t="shared" si="5"/>
-        <v>61.143110849790006</v>
+        <v>59.810003487999992</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.15">
@@ -10330,11 +10330,11 @@
       </c>
       <c r="M170">
         <f t="shared" si="4"/>
-        <v>298.98777242880004</v>
+        <v>299.09636362943996</v>
       </c>
       <c r="N170">
         <f t="shared" si="5"/>
-        <v>142.99388621440002</v>
+        <v>143.04818181471998</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.15">
@@ -10376,11 +10376,11 @@
       </c>
       <c r="M171">
         <f t="shared" si="4"/>
-        <v>180.67364821528</v>
+        <v>180.40211994485998</v>
       </c>
       <c r="N171">
         <f t="shared" si="5"/>
-        <v>83.836824107639998</v>
+        <v>83.701059972429988</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.15">
@@ -10422,11 +10422,11 @@
       </c>
       <c r="M172">
         <f t="shared" si="4"/>
-        <v>261.85442076196006</v>
+        <v>261.73658286151999</v>
       </c>
       <c r="N172">
         <f t="shared" si="5"/>
-        <v>124.42721038098003</v>
+        <v>124.36829143076</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.15">
@@ -10468,11 +10468,11 @@
       </c>
       <c r="M173">
         <f t="shared" si="4"/>
-        <v>261.19172932944997</v>
+        <v>260.90971337883997</v>
       </c>
       <c r="N173">
         <f t="shared" si="5"/>
-        <v>124.09586466472499</v>
+        <v>123.95485668941998</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.15">
@@ -10514,11 +10514,11 @@
       </c>
       <c r="M174">
         <f t="shared" si="4"/>
-        <v>74.240614137199998</v>
+        <v>74.165412614719983</v>
       </c>
       <c r="N174">
         <f t="shared" si="5"/>
-        <v>30.620307068599999</v>
+        <v>30.582706307359992</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.15">
@@ -10560,11 +10560,11 @@
       </c>
       <c r="M175">
         <f t="shared" si="4"/>
-        <v>143.47679191248002</v>
+        <v>143.55053046671998</v>
       </c>
       <c r="N175">
         <f t="shared" si="5"/>
-        <v>65.238395956240012</v>
+        <v>65.275265233359988</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.15">
@@ -10606,11 +10606,11 @@
       </c>
       <c r="M176">
         <f t="shared" si="4"/>
-        <v>75.323414763100004</v>
+        <v>73.838944319999982</v>
       </c>
       <c r="N176">
         <f t="shared" si="5"/>
-        <v>31.161707381550002</v>
+        <v>30.419472159999991</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.15">
@@ -10652,11 +10652,11 @@
       </c>
       <c r="M177">
         <f t="shared" si="4"/>
-        <v>507.79907867404</v>
+        <v>507.85892132375994</v>
       </c>
       <c r="N177">
         <f t="shared" si="5"/>
-        <v>247.39953933702</v>
+        <v>247.42946066187997</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.15">
@@ -10698,11 +10698,11 @@
       </c>
       <c r="M178">
         <f t="shared" si="4"/>
-        <v>214.13464684922002</v>
+        <v>214.03764926111998</v>
       </c>
       <c r="N178">
         <f t="shared" si="5"/>
-        <v>100.56732342461001</v>
+        <v>100.51882463055999</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.15">
@@ -10744,11 +10744,11 @@
       </c>
       <c r="M179">
         <f t="shared" si="4"/>
-        <v>592.36445659189997</v>
+        <v>591.72486426727994</v>
       </c>
       <c r="N179">
         <f t="shared" si="5"/>
-        <v>289.68222829594998</v>
+        <v>289.36243213363997</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.15">
@@ -10790,11 +10790,11 @@
       </c>
       <c r="M180">
         <f t="shared" si="4"/>
-        <v>103.21980896542</v>
+        <v>103.215587469</v>
       </c>
       <c r="N180">
         <f t="shared" si="5"/>
-        <v>45.10990448271</v>
+        <v>45.1077937345</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.15">
@@ -10836,11 +10836,11 @@
       </c>
       <c r="M181">
         <f t="shared" si="4"/>
-        <v>203.69475608075001</v>
+        <v>203.74972650949996</v>
       </c>
       <c r="N181">
         <f t="shared" si="5"/>
-        <v>95.347378040375006</v>
+        <v>95.374863254749982</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.15">
@@ -10882,11 +10882,11 @@
       </c>
       <c r="M182">
         <f t="shared" si="4"/>
-        <v>25.361661071550003</v>
+        <v>24.569661892020001</v>
       </c>
       <c r="N182">
         <f t="shared" si="5"/>
-        <v>6.1808305357750015</v>
+        <v>5.7848309460100005</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.15">
@@ -10928,11 +10928,11 @@
       </c>
       <c r="M183">
         <f t="shared" si="4"/>
-        <v>131.09901639968001</v>
+        <v>131.00243706591999</v>
       </c>
       <c r="N183">
         <f t="shared" si="5"/>
-        <v>59.049508199840005</v>
+        <v>59.001218532959996</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.15">
@@ -10974,11 +10974,11 @@
       </c>
       <c r="M184">
         <f t="shared" si="4"/>
-        <v>241.32261359219996</v>
+        <v>241.06205087664</v>
       </c>
       <c r="N184">
         <f t="shared" si="5"/>
-        <v>114.16130679609998</v>
+        <v>114.03102543832</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.15">
@@ -11020,11 +11020,11 @@
       </c>
       <c r="M185">
         <f t="shared" si="4"/>
-        <v>639.0486733322</v>
+        <v>638.35867476464</v>
       </c>
       <c r="N185">
         <f t="shared" si="5"/>
-        <v>313.0243366661</v>
+        <v>312.67933738232</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.15">
@@ -11066,11 +11066,11 @@
       </c>
       <c r="M186">
         <f t="shared" si="4"/>
-        <v>45.571420821800004</v>
+        <v>44.148307099120004</v>
       </c>
       <c r="N186">
         <f t="shared" si="5"/>
-        <v>16.285710410900002</v>
+        <v>15.574153549560002</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.15">
@@ -11112,11 +11112,11 @@
       </c>
       <c r="M187">
         <f t="shared" si="4"/>
-        <v>260.04221057360002</v>
+        <v>259.98645272599998</v>
       </c>
       <c r="N187">
         <f t="shared" si="5"/>
-        <v>123.52110528680001</v>
+        <v>123.49322636299999</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.15">
@@ -11158,11 +11158,11 @@
       </c>
       <c r="M188">
         <f t="shared" si="4"/>
-        <v>68.643590129199993</v>
+        <v>68.57405807392</v>
       </c>
       <c r="N188">
         <f t="shared" si="5"/>
-        <v>27.821795064599996</v>
+        <v>27.78702903696</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.15">
@@ -11204,11 +11204,11 @@
       </c>
       <c r="M189">
         <f t="shared" si="4"/>
-        <v>82.49618103908</v>
+        <v>82.459056682959996</v>
       </c>
       <c r="N189">
         <f t="shared" si="5"/>
-        <v>34.74809051954</v>
+        <v>34.729528341479998</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.15">
@@ -11250,11 +11250,11 @@
       </c>
       <c r="M190">
         <f t="shared" si="4"/>
-        <v>211.35610078009998</v>
+        <v>211.12789373912</v>
       </c>
       <c r="N190">
         <f t="shared" si="5"/>
-        <v>99.178050390049989</v>
+        <v>99.063946869559999</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.15">
@@ -11296,11 +11296,11 @@
       </c>
       <c r="M191">
         <f t="shared" si="4"/>
-        <v>141.17273134708</v>
+        <v>141.10920177895997</v>
       </c>
       <c r="N191">
         <f t="shared" si="5"/>
-        <v>64.086365673540001</v>
+        <v>64.054600889479985</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.15">
@@ -11342,11 +11342,11 @@
       </c>
       <c r="M192">
         <f t="shared" si="4"/>
-        <v>411.80933648944006</v>
+        <v>411.62279725823998</v>
       </c>
       <c r="N192">
         <f t="shared" si="5"/>
-        <v>199.40466824472003</v>
+        <v>199.31139862911999</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.15">
@@ -11388,11 +11388,11 @@
       </c>
       <c r="M193">
         <f t="shared" si="4"/>
-        <v>805.3669382167601</v>
+        <v>805.3453883999199</v>
       </c>
       <c r="N193">
         <f t="shared" si="5"/>
-        <v>396.18346910838005</v>
+        <v>396.17269419995995</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.15">
@@ -11434,11 +11434,11 @@
       </c>
       <c r="M194">
         <f t="shared" si="4"/>
-        <v>124.32041187764999</v>
+        <v>124.18617968268001</v>
       </c>
       <c r="N194">
         <f t="shared" si="5"/>
-        <v>55.660205938824994</v>
+        <v>55.593089841340003</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.15">
@@ -11479,12 +11479,12 @@
         <v>0.20658236499999999</v>
       </c>
       <c r="M195">
-        <f t="shared" ref="M195:M251" si="6" xml:space="preserve"> (305 + 66.81 * I195 - IF(B195="Store Mailing List", 242.76, 0) + IF(B195="Loyalty Club and Credit Card", 281.69, 0) - IF(B195="Loyalty Club Only", 150.03, 0) + IF(B195="Credit Card Only", 0)) * L195</f>
-        <v>73.419372520999985</v>
+        <f t="shared" ref="M195:M251" si="6" xml:space="preserve"> (303.46 + 66.98 * I195 - IF(B195="Store Mailing List", 245.42, 0) + IF(B195="Loyalty Club and Credit Card", 281.84, 0) - IF(B195="Loyalty Club Only", 149.36, 0) + IF(B195="Credit Card Only", 0)) * L195</f>
+        <v>73.345002869599995</v>
       </c>
       <c r="N195">
         <f t="shared" ref="N195:N251" si="7">M195 * 0.5 - 6.5</f>
-        <v>30.209686260499993</v>
+        <v>30.172501434799997</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.15">
@@ -11526,11 +11526,11 @@
       </c>
       <c r="M196">
         <f t="shared" si="6"/>
-        <v>313.26842579354002</v>
+        <v>313.25561370299999</v>
       </c>
       <c r="N196">
         <f t="shared" si="7"/>
-        <v>150.13421289677001</v>
+        <v>150.1278068515</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.15">
@@ -11572,11 +11572,11 @@
       </c>
       <c r="M197">
         <f t="shared" si="6"/>
-        <v>178.28021286938002</v>
+        <v>178.14887562022</v>
       </c>
       <c r="N197">
         <f t="shared" si="7"/>
-        <v>82.640106434690011</v>
+        <v>82.574437810109998</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.15">
@@ -11618,11 +11618,11 @@
       </c>
       <c r="M198">
         <f t="shared" si="6"/>
-        <v>75.551473984999987</v>
+        <v>75.474944635999989</v>
       </c>
       <c r="N198">
         <f t="shared" si="7"/>
-        <v>31.275736992499994</v>
+        <v>31.237472317999995</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.15">
@@ -11664,11 +11664,11 @@
       </c>
       <c r="M199">
         <f t="shared" si="6"/>
-        <v>221.74876520558001</v>
+        <v>218.63362855652002</v>
       </c>
       <c r="N199">
         <f t="shared" si="7"/>
-        <v>104.37438260279001</v>
+        <v>102.81681427826001</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.15">
@@ -11710,11 +11710,11 @@
       </c>
       <c r="M200">
         <f t="shared" si="6"/>
-        <v>38.103101492679997</v>
+        <v>37.35216729599999</v>
       </c>
       <c r="N200">
         <f t="shared" si="7"/>
-        <v>12.551550746339998</v>
+        <v>12.176083647999995</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.15">
@@ -11756,11 +11756,11 @@
       </c>
       <c r="M201">
         <f t="shared" si="6"/>
-        <v>278.75625310400005</v>
+        <v>278.85749629520001</v>
       </c>
       <c r="N201">
         <f t="shared" si="7"/>
-        <v>132.87812655200003</v>
+        <v>132.9287481476</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.15">
@@ -11802,11 +11802,11 @@
       </c>
       <c r="M202">
         <f t="shared" si="6"/>
-        <v>481.13037338135001</v>
+        <v>480.73033758790001</v>
       </c>
       <c r="N202">
         <f t="shared" si="7"/>
-        <v>234.06518669067501</v>
+        <v>233.86516879395001</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.15">
@@ -11848,11 +11848,11 @@
       </c>
       <c r="M203">
         <f t="shared" si="6"/>
-        <v>91.358263492679995</v>
+        <v>91.021637740320003</v>
       </c>
       <c r="N203">
         <f t="shared" si="7"/>
-        <v>39.179131746339998</v>
+        <v>39.010818870160001</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.15">
@@ -11894,11 +11894,11 @@
       </c>
       <c r="M204">
         <f t="shared" si="6"/>
-        <v>95.37989392099999</v>
+        <v>95.283279509599978</v>
       </c>
       <c r="N204">
         <f t="shared" si="7"/>
-        <v>41.189946960499995</v>
+        <v>41.141639754799989</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.15">
@@ -11940,11 +11940,11 @@
       </c>
       <c r="M205">
         <f t="shared" si="6"/>
-        <v>186.75330233797001</v>
+        <v>186.66926091914002</v>
       </c>
       <c r="N205">
         <f t="shared" si="7"/>
-        <v>86.876651168985006</v>
+        <v>86.834630459570008</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.15">
@@ -11986,11 +11986,11 @@
       </c>
       <c r="M206">
         <f t="shared" si="6"/>
-        <v>113.33792742584001</v>
+        <v>113.28692388207999</v>
       </c>
       <c r="N206">
         <f t="shared" si="7"/>
-        <v>50.168963712920004</v>
+        <v>50.143461941039995</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.15">
@@ -12032,11 +12032,11 @@
       </c>
       <c r="M207">
         <f t="shared" si="6"/>
-        <v>203.09944959264001</v>
+        <v>202.87238444928002</v>
       </c>
       <c r="N207">
         <f t="shared" si="7"/>
-        <v>95.049724796320007</v>
+        <v>94.93619222464001</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.15">
@@ -12078,11 +12078,11 @@
       </c>
       <c r="M208">
         <f t="shared" si="6"/>
-        <v>303.42795201613006</v>
+        <v>303.29140548506001</v>
       </c>
       <c r="N208">
         <f t="shared" si="7"/>
-        <v>145.21397600806503</v>
+        <v>145.14570274253001</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.15">
@@ -12124,11 +12124,11 @@
       </c>
       <c r="M209">
         <f t="shared" si="6"/>
-        <v>99.264922309979994</v>
+        <v>99.260862560999996</v>
       </c>
       <c r="N209">
         <f t="shared" si="7"/>
-        <v>43.132461154989997</v>
+        <v>43.130431280499998</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.15">
@@ -12170,11 +12170,11 @@
       </c>
       <c r="M210">
         <f t="shared" si="6"/>
-        <v>96.821949027439999</v>
+        <v>96.557058373039993</v>
       </c>
       <c r="N210">
         <f t="shared" si="7"/>
-        <v>41.910974513719999</v>
+        <v>41.778529186519997</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.15">
@@ -12216,11 +12216,11 @@
       </c>
       <c r="M211">
         <f t="shared" si="6"/>
-        <v>139.53395186834999</v>
+        <v>139.38329319252</v>
       </c>
       <c r="N211">
         <f t="shared" si="7"/>
-        <v>63.266975934174994</v>
+        <v>63.19164659626</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.15">
@@ -12262,11 +12262,11 @@
       </c>
       <c r="M212">
         <f t="shared" si="6"/>
-        <v>143.1127737496</v>
+        <v>142.84994492639996</v>
       </c>
       <c r="N212">
         <f t="shared" si="7"/>
-        <v>65.056386874799998</v>
+        <v>64.924972463199978</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.15">
@@ -12308,11 +12308,11 @@
       </c>
       <c r="M213">
         <f t="shared" si="6"/>
-        <v>51.018409812500003</v>
+        <v>50.857381374999996</v>
       </c>
       <c r="N213">
         <f t="shared" si="7"/>
-        <v>19.009204906250002</v>
+        <v>18.928690687499998</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.15">
@@ -12354,11 +12354,11 @@
       </c>
       <c r="M214">
         <f t="shared" si="6"/>
-        <v>29.169660599500006</v>
+        <v>28.258744425800003</v>
       </c>
       <c r="N214">
         <f t="shared" si="7"/>
-        <v>8.0848302997500028</v>
+        <v>7.6293722129000017</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.15">
@@ -12400,11 +12400,11 @@
       </c>
       <c r="M215">
         <f t="shared" si="6"/>
-        <v>486.57803412918003</v>
+        <v>486.55813400100004</v>
       </c>
       <c r="N215">
         <f t="shared" si="7"/>
-        <v>236.78901706459001</v>
+        <v>236.77906700050002</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.15">
@@ -12446,11 +12446,11 @@
       </c>
       <c r="M216">
         <f t="shared" si="6"/>
-        <v>110.40810856427001</v>
+        <v>110.43790403461999</v>
       </c>
       <c r="N216">
         <f t="shared" si="7"/>
-        <v>48.704054282135004</v>
+        <v>48.718952017309995</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.15">
@@ -12492,11 +12492,11 @@
       </c>
       <c r="M217">
         <f t="shared" si="6"/>
-        <v>33.288743540700004</v>
+        <v>32.249195795880006</v>
       </c>
       <c r="N217">
         <f t="shared" si="7"/>
-        <v>10.144371770350002</v>
+        <v>9.6245978979400029</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.15">
@@ -12538,11 +12538,11 @@
       </c>
       <c r="M218">
         <f t="shared" si="6"/>
-        <v>165.72139222502</v>
+        <v>165.59930693337998</v>
       </c>
       <c r="N218">
         <f t="shared" si="7"/>
-        <v>76.360696112509999</v>
+        <v>76.299653466689989</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.15">
@@ -12584,11 +12584,11 @@
       </c>
       <c r="M219">
         <f t="shared" si="6"/>
-        <v>176.70014138507003</v>
+        <v>176.62010068271999</v>
       </c>
       <c r="N219">
         <f t="shared" si="7"/>
-        <v>81.850070692535013</v>
+        <v>81.810050341359997</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.15">
@@ -12630,11 +12630,11 @@
       </c>
       <c r="M220">
         <f t="shared" si="6"/>
-        <v>198.24289245659998</v>
+        <v>198.16861786775996</v>
       </c>
       <c r="N220">
         <f t="shared" si="7"/>
-        <v>92.621446228299988</v>
+        <v>92.584308933879981</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.15">
@@ -12676,11 +12676,11 @@
       </c>
       <c r="M221">
         <f t="shared" si="6"/>
-        <v>111.89714545196001</v>
+        <v>111.92734276375998</v>
       </c>
       <c r="N221">
         <f t="shared" si="7"/>
-        <v>49.448572725980007</v>
+        <v>49.46367138187999</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.15">
@@ -12722,11 +12722,11 @@
       </c>
       <c r="M222">
         <f t="shared" si="6"/>
-        <v>172.57227794208001</v>
+        <v>172.49461816895999</v>
       </c>
       <c r="N222">
         <f t="shared" si="7"/>
-        <v>79.786138971040003</v>
+        <v>79.747309084479994</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.15">
@@ -12768,11 +12768,11 @@
       </c>
       <c r="M223">
         <f t="shared" si="6"/>
-        <v>119.50528359879999</v>
+        <v>119.38423153887997</v>
       </c>
       <c r="N223">
         <f t="shared" si="7"/>
-        <v>53.252641799399996</v>
+        <v>53.192115769439987</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.15">
@@ -12814,11 +12814,11 @@
       </c>
       <c r="M224">
         <f t="shared" si="6"/>
-        <v>407.19767514220001</v>
+        <v>407.12043441319992</v>
       </c>
       <c r="N224">
         <f t="shared" si="7"/>
-        <v>197.09883757110001</v>
+        <v>197.06021720659996</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.15">
@@ -12860,11 +12860,11 @@
       </c>
       <c r="M225">
         <f t="shared" si="6"/>
-        <v>129.05734277696001</v>
+        <v>128.99926529151998</v>
       </c>
       <c r="N225">
         <f t="shared" si="7"/>
-        <v>58.028671388480006</v>
+        <v>57.999632645759988</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.15">
@@ -12906,11 +12906,11 @@
       </c>
       <c r="M226">
         <f t="shared" si="6"/>
-        <v>137.18767524064</v>
+        <v>137.12593899967999</v>
       </c>
       <c r="N226">
         <f t="shared" si="7"/>
-        <v>62.093837620320002</v>
+        <v>62.062969499839994</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.15">
@@ -12952,11 +12952,11 @@
       </c>
       <c r="M227">
         <f t="shared" si="6"/>
-        <v>363.83268131867004</v>
+        <v>363.66895187253999</v>
       </c>
       <c r="N227">
         <f t="shared" si="7"/>
-        <v>175.41634065933502</v>
+        <v>175.33447593627</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.15">
@@ -12998,11 +12998,11 @@
       </c>
       <c r="M228">
         <f t="shared" si="6"/>
-        <v>181.51570782055998</v>
+        <v>181.38198701463998</v>
       </c>
       <c r="N228">
         <f t="shared" si="7"/>
-        <v>84.257853910279991</v>
+        <v>84.190993507319988</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.15">
@@ -13044,11 +13044,11 @@
       </c>
       <c r="M229">
         <f t="shared" si="6"/>
-        <v>270.9577257089</v>
+        <v>270.85620744803998</v>
       </c>
       <c r="N229">
         <f t="shared" si="7"/>
-        <v>128.97886285445</v>
+        <v>128.92810372401999</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.15">
@@ -13090,11 +13090,11 @@
       </c>
       <c r="M230">
         <f t="shared" si="6"/>
-        <v>56.733058779630007</v>
+        <v>56.628867639419994</v>
       </c>
       <c r="N230">
         <f t="shared" si="7"/>
-        <v>21.866529389815003</v>
+        <v>21.814433819709997</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.15">
@@ -13136,11 +13136,11 @@
       </c>
       <c r="M231">
         <f t="shared" si="6"/>
-        <v>54.866649878299995</v>
+        <v>54.693475313799993</v>
       </c>
       <c r="N231">
         <f t="shared" si="7"/>
-        <v>20.933324939149998</v>
+        <v>20.846737656899997</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.15">
@@ -13182,11 +13182,11 @@
       </c>
       <c r="M232">
         <f t="shared" si="6"/>
-        <v>199.66090285158003</v>
+        <v>199.51381466202</v>
       </c>
       <c r="N232">
         <f t="shared" si="7"/>
-        <v>93.330451425790017</v>
+        <v>93.256907331009998</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.15">
@@ -13228,11 +13228,11 @@
       </c>
       <c r="M233">
         <f t="shared" si="6"/>
-        <v>107.52658690653001</v>
+        <v>107.55560475017998</v>
       </c>
       <c r="N233">
         <f t="shared" si="7"/>
-        <v>47.263293453265007</v>
+        <v>47.277802375089991</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.15">
@@ -13274,11 +13274,11 @@
       </c>
       <c r="M234">
         <f t="shared" si="6"/>
-        <v>185.46958384696001</v>
+        <v>185.26222888992001</v>
       </c>
       <c r="N234">
         <f t="shared" si="7"/>
-        <v>86.234791923480003</v>
+        <v>86.131114444960005</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.15">
@@ -13320,11 +13320,11 @@
       </c>
       <c r="M235">
         <f t="shared" si="6"/>
-        <v>72.684914828239997</v>
+        <v>72.455500812639983</v>
       </c>
       <c r="N235">
         <f t="shared" si="7"/>
-        <v>29.842457414119998</v>
+        <v>29.727750406319991</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.15">
@@ -13366,11 +13366,11 @@
       </c>
       <c r="M236">
         <f t="shared" si="6"/>
-        <v>202.94922577688001</v>
+        <v>202.79971511271998</v>
       </c>
       <c r="N236">
         <f t="shared" si="7"/>
-        <v>94.974612888440006</v>
+        <v>94.89985755635999</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.15">
@@ -13412,11 +13412,11 @@
       </c>
       <c r="M237">
         <f t="shared" si="6"/>
-        <v>120.8169308083</v>
+        <v>120.68648141896001</v>
       </c>
       <c r="N237">
         <f t="shared" si="7"/>
-        <v>53.90846540415</v>
+        <v>53.843240709480007</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.15">
@@ -13458,11 +13458,11 @@
       </c>
       <c r="M238">
         <f t="shared" si="6"/>
-        <v>87.551647792250009</v>
+        <v>87.39085783649999</v>
       </c>
       <c r="N238">
         <f t="shared" si="7"/>
-        <v>37.275823896125004</v>
+        <v>37.195428918249995</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.15">
@@ -13504,11 +13504,11 @@
       </c>
       <c r="M239">
         <f t="shared" si="6"/>
-        <v>730.35046407938989</v>
+        <v>730.34240539548</v>
       </c>
       <c r="N239">
         <f t="shared" si="7"/>
-        <v>358.67523203969495</v>
+        <v>358.67120269774</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.15">
@@ -13550,11 +13550,11 @@
       </c>
       <c r="M240">
         <f t="shared" si="6"/>
-        <v>137.78510083583998</v>
+        <v>137.57802830207999</v>
       </c>
       <c r="N240">
         <f t="shared" si="7"/>
-        <v>62.392550417919992</v>
+        <v>62.289014151039993</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.15">
@@ -13596,11 +13596,11 @@
       </c>
       <c r="M241">
         <f t="shared" si="6"/>
-        <v>147.1775924925</v>
+        <v>147.01868076600002</v>
       </c>
       <c r="N241">
         <f t="shared" si="7"/>
-        <v>67.088796246249998</v>
+        <v>67.009340383000009</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.15">
@@ -13642,11 +13642,11 @@
       </c>
       <c r="M242">
         <f t="shared" si="6"/>
-        <v>80.555722034110005</v>
+        <v>80.519470909820001</v>
       </c>
       <c r="N242">
         <f t="shared" si="7"/>
-        <v>33.777861017055002</v>
+        <v>33.75973545491</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.15">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="M243">
         <f t="shared" si="6"/>
-        <v>305.07489597939997</v>
+        <v>304.74549815728</v>
       </c>
       <c r="N243">
         <f t="shared" si="7"/>
-        <v>146.03744798969998</v>
+        <v>145.87274907864</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.15">
@@ -13734,11 +13734,11 @@
       </c>
       <c r="M244">
         <f t="shared" si="6"/>
-        <v>168.17032275596</v>
+        <v>168.13426393610001</v>
       </c>
       <c r="N244">
         <f t="shared" si="7"/>
-        <v>77.58516137798</v>
+        <v>77.567131968050006</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.15">
@@ -13780,11 +13780,11 @@
       </c>
       <c r="M245">
         <f t="shared" si="6"/>
-        <v>181.60347800299999</v>
+        <v>181.40739569359999</v>
       </c>
       <c r="N245">
         <f t="shared" si="7"/>
-        <v>84.301739001499996</v>
+        <v>84.203697846799997</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.15">
@@ -13826,11 +13826,11 @@
       </c>
       <c r="M246">
         <f t="shared" si="6"/>
-        <v>38.901760598120006</v>
+        <v>38.135086463999997</v>
       </c>
       <c r="N246">
         <f t="shared" si="7"/>
-        <v>12.950880299060003</v>
+        <v>12.567543231999998</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.15">
@@ -13872,11 +13872,11 @@
       </c>
       <c r="M247">
         <f t="shared" si="6"/>
-        <v>325.92961031505996</v>
+        <v>326.25822505370002</v>
       </c>
       <c r="N247">
         <f t="shared" si="7"/>
-        <v>156.46480515752998</v>
+        <v>156.62911252685001</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.15">
@@ -13918,11 +13918,11 @@
       </c>
       <c r="M248">
         <f t="shared" si="6"/>
-        <v>68.521156961599999</v>
+        <v>68.451748924159986</v>
       </c>
       <c r="N248">
         <f t="shared" si="7"/>
-        <v>27.7605784808</v>
+        <v>27.725874462079993</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.15">
@@ -13964,11 +13964,11 @@
       </c>
       <c r="M249">
         <f t="shared" si="6"/>
-        <v>235.36942897655001</v>
+        <v>235.43294734429995</v>
       </c>
       <c r="N249">
         <f t="shared" si="7"/>
-        <v>111.18471448827501</v>
+        <v>111.21647367214997</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.15">
@@ -14010,11 +14010,11 @@
       </c>
       <c r="M250">
         <f t="shared" si="6"/>
-        <v>200.31509542505003</v>
+        <v>200.22435774479999</v>
       </c>
       <c r="N250">
         <f t="shared" si="7"/>
-        <v>93.657547712525016</v>
+        <v>93.612178872399994</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.15">
@@ -14056,11 +14056,11 @@
       </c>
       <c r="M251">
         <f t="shared" si="6"/>
-        <v>130.14254847625</v>
+        <v>130.002029959</v>
       </c>
       <c r="N251">
         <f t="shared" si="7"/>
-        <v>58.571274238125</v>
+        <v>58.501014979499999</v>
       </c>
     </row>
   </sheetData>
